--- a/project.xlsx
+++ b/project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhuvan Vishwakarma\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A273B2-0FC4-4D29-8C0C-B0570C21345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADDD482-DD10-43B4-8F95-F495CBB81DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="8" xr2:uid="{D14CE470-6A26-48CB-82FD-83D22A7F2619}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{D14CE470-6A26-48CB-82FD-83D22A7F2619}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="17" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="nifty_metal_credit_benchmarking" sheetId="32" r:id="rId7"/>
     <sheet name="nifty_metal_rating_transition_m" sheetId="33" r:id="rId8"/>
     <sheet name="credit_risk_scorecard_predictio" sheetId="34" r:id="rId9"/>
+    <sheet name="Plots" sheetId="35" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'2021'!$B$2:$I$26</definedName>
@@ -147,8 +148,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="896">
   <si>
     <t>Particulars</t>
   </si>
@@ -2554,9 +2577,6 @@
     <t xml:space="preserve">Current ratio </t>
   </si>
   <si>
-    <t>benchamrk</t>
-  </si>
-  <si>
     <t>quick ratio</t>
   </si>
   <si>
@@ -2867,6 +2887,15 @@
   </si>
   <si>
     <t>Transition_Flag</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>RATIO ANALYSIS</t>
   </si>
 </sst>
 </file>
@@ -2874,9 +2903,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2924,6 +2953,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2998,9 +3042,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3013,9 +3055,7 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
@@ -3026,7 +3066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3045,22 +3085,408 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="113">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3281,6 +3707,483 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>404998</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>260787</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC8AD94-7941-33C4-4E53-60008F489F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8988446" y="442923"/>
+          <a:ext cx="6599927" cy="3923850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>48813</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>515711</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6211D6F2-0B29-556C-A711-502C6D136356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15937645" y="408990"/>
+          <a:ext cx="6577987" cy="3861943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380090</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>235879</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EBD6F7-AD15-239D-2B39-742CF0067BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8935615" y="4715343"/>
+          <a:ext cx="6577987" cy="3860891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>36334</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>599961</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415D2AB9-E763-31CB-30ED-CF546B31DC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15925166" y="4661754"/>
+          <a:ext cx="6674716" cy="3887179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408878</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>18585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>260950</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>79884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E127C6-0420-3452-0B58-AE80BC74E423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8995317" y="9497122"/>
+          <a:ext cx="6598560" cy="3964225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44705</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>477445</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>77211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AC37B8-70DF-C04D-463E-881000017A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16108489" y="9531278"/>
+          <a:ext cx="6611118" cy="3891230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392317</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>264060</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>30179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D141D5-7663-B709-232D-C798E1A2BE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId14">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8947842" y="13942338"/>
+          <a:ext cx="6593941" cy="3832633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>101386</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>164756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>534126</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>165530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1784DF7-4E62-52D1-8AB3-E693C43C3132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId16">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15990218" y="13926023"/>
+          <a:ext cx="6543829" cy="3803230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{3A5A4CA5-D9D1-4459-BB81-B8623972F0B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
@@ -3430,17 +4333,81 @@
 </queryTable>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4F873314-3452-4422-8E7D-062CAF8433E9}" name="Table435__Page_153" displayName="Table435__Page_153" ref="B2:I26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:I26" xr:uid="{4F873314-3452-4422-8E7D-062CAF8433E9}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{41FFC5A2-DD2A-4B44-A659-3569E1E7AFFA}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{8304AE20-82A5-4391-9DB7-5ED085BA28FE}" uniqueName="2" name="Note" queryTableFieldId="2" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{A143B08E-205B-4316-A2E7-B24A8CCA7A76}" uniqueName="3" name="Before Special_x000a_items" queryTableFieldId="3" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{B4679557-83EA-4DEE-8C5A-22B747C80DD3}" uniqueName="4" name="Special items_x000a_(Note 6)" queryTableFieldId="4" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{41FFC5A2-DD2A-4B44-A659-3569E1E7AFFA}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{8304AE20-82A5-4391-9DB7-5ED085BA28FE}" uniqueName="2" name="Note" queryTableFieldId="2" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{A143B08E-205B-4316-A2E7-B24A8CCA7A76}" uniqueName="3" name="Before Special_x000a_items" queryTableFieldId="3" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{B4679557-83EA-4DEE-8C5A-22B747C80DD3}" uniqueName="4" name="Special items_x000a_(Note 6)" queryTableFieldId="4" dataDxfId="109"/>
     <tableColumn id="5" xr3:uid="{234E64F7-AE2A-45AD-9D61-BA111762EC51}" uniqueName="5" name="Total" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{9C64453C-09B3-4139-89B0-D6F9871F7113}" uniqueName="6" name="Before Special_x000a_items_1" queryTableFieldId="6" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{8C6B4233-F605-4E0B-AF61-B7BB2D2CA024}" uniqueName="7" name="Special items_x000a_(Note 6)_2" queryTableFieldId="7" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{9C64453C-09B3-4139-89B0-D6F9871F7113}" uniqueName="6" name="Before Special_x000a_items_1" queryTableFieldId="6" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{8C6B4233-F605-4E0B-AF61-B7BB2D2CA024}" uniqueName="7" name="Special items_x000a_(Note 6)_2" queryTableFieldId="7" dataDxfId="107"/>
     <tableColumn id="8" xr3:uid="{646DC272-ABF4-428B-B2DD-91EC04F79E45}" uniqueName="8" name="Total_3" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3451,10 +4418,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7A7E2729-4FF6-4311-AE15-1474644EECD4}" name="Table526__Page_176___216" displayName="Table526__Page_176___216" ref="N54:Q106" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="N54:Q106" xr:uid="{7A7E2729-4FF6-4311-AE15-1474644EECD4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8223BE95-25E4-4264-A3F1-F62BBD170931}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{EB41FCD3-F749-4337-90B2-74AE1A898D73}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{CB8CB843-C3D3-4927-96DC-60EB07765C34}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{8AC91372-3811-491D-8C0A-A5766573A74D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{8223BE95-25E4-4264-A3F1-F62BBD170931}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{EB41FCD3-F749-4337-90B2-74AE1A898D73}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{CB8CB843-C3D3-4927-96DC-60EB07765C34}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{8AC91372-3811-491D-8C0A-A5766573A74D}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3464,14 +4431,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{980472B9-85B8-4FB3-A2D6-F24BC3F36A28}" name="Table456__Page_170" displayName="Table456__Page_170" ref="A1:H21" totalsRowShown="0">
   <autoFilter ref="A1:H21" xr:uid="{980472B9-85B8-4FB3-A2D6-F24BC3F36A28}"/>
   <tableColumns count="8">
-    <tableColumn id="3" xr3:uid="{CD90DFB3-FA4F-445D-A5D2-87D0C6B38C0B}" name="column 1" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{479AB471-3552-4FE3-BF51-31881A35EFE8}" name="column 2" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{DA7289D4-4A0F-4685-8890-1DE625BD40A8}" name="column 3" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{C6E7116E-023C-4767-97F4-984DC363AA61}" name="column 4" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{10651A34-6B69-472A-AA6D-E54B4018F213}" name="column 5" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{026972E3-3C5B-4164-9458-CA36B1B7729F}" name="column 6" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{A7BF1D1C-173E-48DF-AE42-FBB02C3E0135}" name="column 7" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{3BB75CBD-8E55-4B94-AB80-A7B03BC1F52B}" name="column 8" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CD90DFB3-FA4F-445D-A5D2-87D0C6B38C0B}" name="column 1" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{479AB471-3552-4FE3-BF51-31881A35EFE8}" name="column 2" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{DA7289D4-4A0F-4685-8890-1DE625BD40A8}" name="column 3" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{C6E7116E-023C-4767-97F4-984DC363AA61}" name="column 4" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{10651A34-6B69-472A-AA6D-E54B4018F213}" name="column 5" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{026972E3-3C5B-4164-9458-CA36B1B7729F}" name="column 6" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{A7BF1D1C-173E-48DF-AE42-FBB02C3E0135}" name="column 7" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{3BB75CBD-8E55-4B94-AB80-A7B03BC1F52B}" name="column 8" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3481,9 +4448,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E754FA1-0B93-44E6-ADF8-B7AA43872451}" name="Table458__Page_172_173" displayName="Table458__Page_172_173" ref="A24:D73" totalsRowShown="0">
   <autoFilter ref="A24:D73" xr:uid="{6E754FA1-0B93-44E6-ADF8-B7AA43872451}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C83D8ED7-5547-4031-B845-4053A81D0429}" name="Particulars" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{21F7342F-036E-4543-B7FC-22E03B8139FF}" name="Note" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{434D86D4-10EA-4FE4-8484-9732C682A613}" name="As at_x000a_31 March 2024" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C83D8ED7-5547-4031-B845-4053A81D0429}" name="Particulars" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{21F7342F-036E-4543-B7FC-22E03B8139FF}" name="Note" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{434D86D4-10EA-4FE4-8484-9732C682A613}" name="As at_x000a_31 March 2024" dataDxfId="50"/>
     <tableColumn id="4" xr3:uid="{310D849C-62E9-4E14-8E6F-737218BF1A0C}" name="As at_x000a_31 March 2023*"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3494,10 +4461,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C989225-F487-44FF-B6B1-70C68799BE27}" name="Table460__Page_174_175" displayName="Table460__Page_174_175" ref="K1:N56" totalsRowShown="0">
   <autoFilter ref="K1:N56" xr:uid="{9C989225-F487-44FF-B6B1-70C68799BE27}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{E8C858E2-57E8-4996-82EA-35360B154D9F}" name="Particulars" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7C00739A-C2E2-4B18-B0C4-C864ED1B10D7}" name="Note" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B96B881F-0841-4D23-AFD7-D14AEDF178CD}" name="Year ended_x000a_31 March 2024" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{FF7776ED-6A98-4707-BA9D-564E1DAC33C4}" name="Year ended_x000a_31 March 2023" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E8C858E2-57E8-4996-82EA-35360B154D9F}" name="Particulars" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{7C00739A-C2E2-4B18-B0C4-C864ED1B10D7}" name="Note" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{B96B881F-0841-4D23-AFD7-D14AEDF178CD}" name="Year ended_x000a_31 March 2024" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{FF7776ED-6A98-4707-BA9D-564E1DAC33C4}" name="Year ended_x000a_31 March 2023" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3507,8 +4474,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{269B5375-7539-4D89-BCA2-D55FE4E78E1F}" name="Table457__Page_171" displayName="Table457__Page_171" ref="K59:M79" totalsRowShown="0">
   <autoFilter ref="K59:M79" xr:uid="{269B5375-7539-4D89-BCA2-D55FE4E78E1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{93C4D137-7A5F-45E7-9A2B-EF8EDB2174FD}" name="Particulars" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A5E7F9FB-B844-4F27-B771-EA02CD615E07}" name="Year ended_x000a_31 March 2024" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{93C4D137-7A5F-45E7-9A2B-EF8EDB2174FD}" name="Particulars" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{A5E7F9FB-B844-4F27-B771-EA02CD615E07}" name="Year ended_x000a_31 March 2024" dataDxfId="44"/>
     <tableColumn id="3" xr3:uid="{03B74F77-3B05-400E-9B34-0D7F4F31F730}" name="Year ended_x000a_31 March 2023"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3525,7 +4492,81 @@
     <tableColumn id="5" xr3:uid="{35399860-3174-4442-9752-D5648D9C3A73}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{E8D63D88-9960-4067-B2EE-13B3E7402172}" name="Column6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{98C590EA-6595-4AC5-9D76-D2AC1002CD4E}" name="Table16" displayName="Table16" ref="A3:D16" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="42" tableBorderDxfId="43">
+  <autoFilter ref="A3:D16" xr:uid="{98C590EA-6595-4AC5-9D76-D2AC1002CD4E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{67AEAF87-8B96-4378-893E-8F8CA4DD4794}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{E2D44D42-33F9-415A-AC56-E1BE784F4C90}" name="Closing Price (₹)"/>
+    <tableColumn id="3" xr3:uid="{DB6A7769-29D9-4E76-817E-69F2E2E058C8}" name="shares outstanding(millions)"/>
+    <tableColumn id="4" xr3:uid="{D6793E06-39ED-462F-B9CC-D9A14F804A81}" name="market cap" dataDxfId="41">
+      <calculatedColumnFormula>B4*C4/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{933C035D-9230-4084-8C68-2C5C8A455714}" name="Table17" displayName="Table17" ref="A19:C23" totalsRowShown="0">
+  <autoFilter ref="A19:C23" xr:uid="{933C035D-9230-4084-8C68-2C5C8A455714}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F21EC1D9-E456-4288-8BEE-C6625A7764B8}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{ACB6B7CC-3CAE-446E-8E2A-2EDE7DA03C5B}" name="2023"/>
+    <tableColumn id="3" xr3:uid="{1FC53E43-C00D-4232-BBB2-6EEA94EC7861}" name="2024"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B58C3113-C73A-4CD3-B917-D1F5D29C9A01}" name="Table18" displayName="Table18" ref="A25:B28" totalsRowShown="0">
+  <autoFilter ref="A25:B28" xr:uid="{B58C3113-C73A-4CD3-B917-D1F5D29C9A01}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BBA034BA-537E-46F4-883F-5029F96F48C4}" name="time horizon"/>
+    <tableColumn id="2" xr3:uid="{825D1797-BAF1-47E5-B164-6D2642D804DF}" name="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{47428E17-7682-43F2-A791-4E10F940DD0E}" name="Table19" displayName="Table19" ref="A40:K53" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="38" tableBorderDxfId="39">
+  <autoFilter ref="A40:K53" xr:uid="{47428E17-7682-43F2-A791-4E10F940DD0E}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{8FAEB849-C382-42F4-9DDC-5ECBF10BD26E}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{CA56EE4D-041D-4FAF-8F0D-8C63DB1663D1}" name="Market cap" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{B60028BD-6949-419B-99C1-3D1969784875}" name="Equity return" dataDxfId="36" dataCellStyle="Percent">
+      <calculatedColumnFormula>B41/B40-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9014E0FD-AF8C-4825-9191-D89802A96760}" name="Value of assets" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{B53DE665-34F3-4CC1-B78C-30A63EA56475}" name="Volatility" dataDxfId="34">
+      <calculatedColumnFormula>$B$35</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{09614DB4-D8D7-4365-934F-FBC84B807004}" name="DPT" dataDxfId="33">
+      <calculatedColumnFormula>F40*(1+$B$27)^(1/12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DF2DA6D2-57E7-4877-823F-8D4CC550AA49}" name="d1" dataDxfId="32">
+      <calculatedColumnFormula>(LN(D41/F41)+(E41^2/2+$B$26)*$B$25)/(E41*SQRT($B$25))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A03B058E-B5B9-455F-983E-D91E0296CAC4}" name="d2" dataDxfId="31">
+      <calculatedColumnFormula>G41-E41*SQRT($B$25)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{47C2C484-652F-4AEA-9AA9-85FCB9606BB8}" name="Fair value" dataDxfId="30">
+      <calculatedColumnFormula>D41*_xlfn.NORM.S.DIST(G41,1)-F41*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H41,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{7EC90613-342F-4E88-B080-20D5574E45C4}" name="Mispricing" dataDxfId="29">
+      <calculatedColumnFormula>B41-I41</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C1AE82D5-87B8-4051-8C12-4EFBBE0ADBC4}" name="Asset return" dataDxfId="28" dataCellStyle="Percent">
+      <calculatedColumnFormula>D41/D40-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3533,10 +4574,114 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{365F4360-95BB-4656-A78F-B84325406D57}" name="Table438__Page_155" displayName="Table438__Page_155" ref="N2:Q56" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="N2:Q56" xr:uid="{365F4360-95BB-4656-A78F-B84325406D57}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BFE1812B-2574-44C0-A074-18861DB4DC1E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{905424E9-82C4-45A3-A8E6-0A53309B2AD6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{F915B4B2-9BF9-4AEC-8BA3-48872DE61E81}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{28210F78-15CF-4AEF-99EB-470F46C2A8A4}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{BFE1812B-2574-44C0-A074-18861DB4DC1E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{905424E9-82C4-45A3-A8E6-0A53309B2AD6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{F915B4B2-9BF9-4AEC-8BA3-48872DE61E81}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{28210F78-15CF-4AEF-99EB-470F46C2A8A4}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="103"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5A7F786B-D2A9-4B61-8741-7864F903C634}" name="Table21" displayName="Table21" ref="A61:K74" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="25" tableBorderDxfId="26">
+  <autoFilter ref="A61:K74" xr:uid="{5A7F786B-D2A9-4B61-8741-7864F903C634}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{1DFB0B4E-F576-46C9-99D9-DCABB5AC4A7D}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{C9F2D0D9-8C58-4149-9442-F08DB406916B}" name="Market cap" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{3663CD9F-5A0B-4098-AD47-50B78F098E5D}" name="Equity return" dataDxfId="23" dataCellStyle="Percent">
+      <calculatedColumnFormula>B62/B61-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{694324EC-9144-41D5-A446-9E6EE2AE0755}" name="Value of assets" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{29F9E2C5-DF27-4845-AB7B-7A797CBDFA64}" name="Volatility" dataDxfId="21">
+      <calculatedColumnFormula>$B$57</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{EF4B9594-4DE3-49E1-B1A3-3D5850E0DAFB}" name="DPT" dataDxfId="20">
+      <calculatedColumnFormula>F61*(1+$B$27)^(1/12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5ED3BD4A-2A86-4554-94D0-32C14BA330D2}" name="d1" dataDxfId="19">
+      <calculatedColumnFormula>(LN(D62/F62)+(E62^2/2+$B$26)*$B$25)/(E62*SQRT($B$25))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{968C24FE-0B24-4CF7-957B-583E8D11612E}" name="d2" dataDxfId="18">
+      <calculatedColumnFormula>G62-E62*SQRT($B$25)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A79D061D-7F7E-48EA-87BA-0617476EDFF1}" name="Fair value" dataDxfId="17">
+      <calculatedColumnFormula>D62*_xlfn.NORM.S.DIST(G62,1)-F62*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H62,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C6591661-34A6-4C28-9A37-53F025189848}" name="Mispricing" dataDxfId="16">
+      <calculatedColumnFormula>B62-I62</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{3B26D5C9-A9A9-4721-90A5-09E07CF9393E}" name="Asset return" dataDxfId="15" dataCellStyle="Percent">
+      <calculatedColumnFormula>D62/D61-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{217FC363-A61B-4A87-991E-D5E8ED1AA46B}" name="Table22" displayName="Table22" ref="A82:K95" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="A82:K95" xr:uid="{217FC363-A61B-4A87-991E-D5E8ED1AA46B}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{0826FD28-28DC-49BA-83AC-978ADED32660}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{EFA43C99-40C0-4DF0-8EB4-EDE704B51276}" name="Market cap" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A5E77FE6-9337-4676-8247-C9BED8072192}" name="Equity return" dataDxfId="10" dataCellStyle="Percent">
+      <calculatedColumnFormula>B83/B82-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E8BD198E-63F4-4813-8EA6-F808A0A42306}" name="Value of assets" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E4783494-D62D-4F8D-AC67-D07D081CE4E3}" name="Volatility" dataDxfId="8">
+      <calculatedColumnFormula>$B$57</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E568A4FC-B2B5-4DF4-A1B6-18DFB911358C}" name="DPT" dataDxfId="7">
+      <calculatedColumnFormula>F82*(1+$B$27)^(1/12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2B14DB21-901B-4D27-8BBF-E4E03FC0BE77}" name="d1" dataDxfId="6">
+      <calculatedColumnFormula>(LN(D83/F83)+(E83^2/2+$B$26)*$B$25)/(E83*SQRT($B$25))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{CA6504E0-09E1-433E-8A4E-B0E4C71744CF}" name="d2" dataDxfId="5">
+      <calculatedColumnFormula>G83-E83*SQRT($B$25)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{859EA95F-4FA1-4E24-A8F7-0A21883CBA84}" name="Fair value" dataDxfId="4">
+      <calculatedColumnFormula>D83*_xlfn.NORM.S.DIST(G83,1)-F83*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H83,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5654F729-0C5A-4731-BCF2-6753CC0750D7}" name="Mispricing" dataDxfId="3">
+      <calculatedColumnFormula>B83-I83</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{8B23350E-524A-402B-8DE5-C6E09808C918}" name="Asset return" dataDxfId="2" dataCellStyle="Percent">
+      <calculatedColumnFormula>D83/D82-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{082055A7-B741-45B1-9614-17A5BEC175BD}" name="Table23" displayName="Table23" ref="J1:L16" totalsRowShown="0">
+  <autoFilter ref="J1:L16" xr:uid="{082055A7-B741-45B1-9614-17A5BEC175BD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0D4A413E-C0CB-49A3-BB98-D1FB57E79406}" name="Transition Flag 2022"/>
+    <tableColumn id="2" xr3:uid="{4C9B74D2-F3FF-415D-8304-43A491773C47}" name="Transition Flag 2023"/>
+    <tableColumn id="3" xr3:uid="{D004E2F5-2617-4283-94BE-9B5B0D67E17A}" name="Transition Flag 2024"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{346EBE5C-50BA-4B9F-9518-3302D7C5C2CE}" name="Table24" displayName="Table24" ref="A1:K61" totalsRowShown="0">
+  <autoFilter ref="A1:K61" xr:uid="{346EBE5C-50BA-4B9F-9518-3302D7C5C2CE}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{EC345CFD-107A-41DA-898D-28E3897C2A63}" name="Company"/>
+    <tableColumn id="2" xr3:uid="{2FD1E4D5-89EA-4DAC-A314-601DBEB97F85}" name="Year"/>
+    <tableColumn id="3" xr3:uid="{6C491D29-16C4-46AE-A2D7-FE35F8C1ACAC}" name="Debt to Equity"/>
+    <tableColumn id="4" xr3:uid="{BC2A9FBE-197E-4722-9AC6-693432C4388E}" name="Interest Coverage"/>
+    <tableColumn id="5" xr3:uid="{B5DB96EA-D96F-4023-B9F1-4AC628978360}" name="Current Ratio"/>
+    <tableColumn id="6" xr3:uid="{765536A6-26AD-45F9-813E-64C83877146E}" name="ROCE (%)"/>
+    <tableColumn id="7" xr3:uid="{744432C5-72DC-436C-9675-CA13DA4AEEF1}" name="Risk Category"/>
+    <tableColumn id="8" xr3:uid="{0AABB5B7-90BF-4349-98AE-350EA0BC25F8}" name="Transition_Flag"/>
+    <tableColumn id="9" xr3:uid="{755AE204-2DFE-42B2-9C1F-43A785158C9C}" name="default_flag"/>
+    <tableColumn id="10" xr3:uid="{5524D195-28E8-4748-AAAD-35D68AD44EC1}" name="pred_prob" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{CB1C2425-AD9B-40A3-ADCE-8E3B971236F7}" name="pred_label"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3546,7 +4691,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{07992F00-99B0-43A7-BFCE-CA1814075CC6}" name="Table437__Page_15414" displayName="Table437__Page_15414" ref="B29:D48" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B29:D48" xr:uid="{07992F00-99B0-43A7-BFCE-CA1814075CC6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C3D2D13-7942-4252-9078-A975B097660A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{3C3D2D13-7942-4252-9078-A975B097660A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="102"/>
     <tableColumn id="2" xr3:uid="{41DE08DE-C08D-4A3E-B46D-9CD96069512C}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{DC1D6D67-4063-4FEC-A288-F5127772405F}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
   </tableColumns>
@@ -3558,10 +4703,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3D544803-1E1D-4C74-96ED-A23BACA189BB}" name="Table439__Page_156" displayName="Table439__Page_156" ref="N58:Q117" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="N58:Q117" xr:uid="{3D544803-1E1D-4C74-96ED-A23BACA189BB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5014943A-3602-46BE-A6E1-0F90A10466B5}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{382EA21E-88F2-41A3-9431-047192DFF83A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{E2F73B4C-F631-42CA-909F-D7503343139F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{A2ECB9A5-E011-4F85-9FFB-956A7C5FAF81}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{5014943A-3602-46BE-A6E1-0F90A10466B5}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{382EA21E-88F2-41A3-9431-047192DFF83A}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{E2F73B4C-F631-42CA-909F-D7503343139F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{A2ECB9A5-E011-4F85-9FFB-956A7C5FAF81}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3571,14 +4716,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F75358D-DA77-4127-B24E-064C820E2EA5}" name="Table160__Page_75" displayName="Table160__Page_75" ref="A2:H37" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:H37" xr:uid="{0F75358D-DA77-4127-B24E-064C820E2EA5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{902ADD9F-180C-4B3D-8104-748C1EB15B4A}" uniqueName="1" name="Column4" queryTableFieldId="1" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{C4712484-C84C-4C47-AA92-32B9F2E4E512}" uniqueName="2" name="Column5" queryTableFieldId="2" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{FB3F03C0-8F57-49A8-B734-C81100553BEB}" uniqueName="3" name="Column6" queryTableFieldId="3" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{E906C1CF-E5A4-4057-85C9-8E0D5C08056A}" uniqueName="4" name="Column7" queryTableFieldId="4" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{26188AAB-393E-45C9-BD8C-65513F7CDC64}" uniqueName="5" name="Column8" queryTableFieldId="5" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{5540CF67-3FAA-44AA-896C-1837A3490EAC}" uniqueName="6" name="Column9" queryTableFieldId="6" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{EF4C7951-F68D-4753-9EEB-F14009AD05C9}" uniqueName="7" name="Column10" queryTableFieldId="7" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{83DB6A06-4F6A-4A4D-A905-91630F918480}" uniqueName="8" name="Column11" queryTableFieldId="8" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{902ADD9F-180C-4B3D-8104-748C1EB15B4A}" uniqueName="1" name="Column4" queryTableFieldId="1" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{C4712484-C84C-4C47-AA92-32B9F2E4E512}" uniqueName="2" name="Column5" queryTableFieldId="2" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{FB3F03C0-8F57-49A8-B734-C81100553BEB}" uniqueName="3" name="Column6" queryTableFieldId="3" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{E906C1CF-E5A4-4057-85C9-8E0D5C08056A}" uniqueName="4" name="Column7" queryTableFieldId="4" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{26188AAB-393E-45C9-BD8C-65513F7CDC64}" uniqueName="5" name="Column8" queryTableFieldId="5" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{5540CF67-3FAA-44AA-896C-1837A3490EAC}" uniqueName="6" name="Column9" queryTableFieldId="6" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{EF4C7951-F68D-4753-9EEB-F14009AD05C9}" uniqueName="7" name="Column10" queryTableFieldId="7" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{83DB6A06-4F6A-4A4D-A905-91630F918480}" uniqueName="8" name="Column11" queryTableFieldId="8" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3588,19 +4733,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F675E89D-53EE-4D26-A9D0-B1DB819F7C45}" name="Table164__Page_77" displayName="Table164__Page_77" ref="G58:S121" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="G58:S121" xr:uid="{F675E89D-53EE-4D26-A9D0-B1DB819F7C45}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{9DF67CD2-7394-4A43-A6AC-2212F2A4BA3A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{BDA1036F-7316-4898-8C46-C060C4653241}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{CD4D9477-8E47-43F4-889A-C91C3A38232E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{7860B880-F611-4A22-B800-AD684CF49502}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{05BC3B72-E14D-4C3C-9BE8-18132CAF9409}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{16ECC6B9-9951-4506-8BB5-0A94DBA2A07C}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{66BE665A-7E05-47FB-8E18-EAE06A64E7B3}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{AFC935B8-82E3-477D-9E17-651C3AA3DAA8}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{8C6EB449-B5C2-4542-9AC2-A5C5074EBA6E}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{291DAD33-0802-4827-B7E9-70AAC0ED3107}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{3B164BB7-129B-49D1-B922-98FD15215773}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{A4D1C661-32A9-4F35-BCB0-03C9702BEA36}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{853CB2A7-230D-40FD-89A8-0F7D1A74D1F9}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{9DF67CD2-7394-4A43-A6AC-2212F2A4BA3A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{BDA1036F-7316-4898-8C46-C060C4653241}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{CD4D9477-8E47-43F4-889A-C91C3A38232E}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{7860B880-F611-4A22-B800-AD684CF49502}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{05BC3B72-E14D-4C3C-9BE8-18132CAF9409}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{16ECC6B9-9951-4506-8BB5-0A94DBA2A07C}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{66BE665A-7E05-47FB-8E18-EAE06A64E7B3}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{AFC935B8-82E3-477D-9E17-651C3AA3DAA8}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{8C6EB449-B5C2-4542-9AC2-A5C5074EBA6E}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{291DAD33-0802-4827-B7E9-70AAC0ED3107}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{3B164BB7-129B-49D1-B922-98FD15215773}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="79"/>
+    <tableColumn id="12" xr3:uid="{A4D1C661-32A9-4F35-BCB0-03C9702BEA36}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="78"/>
+    <tableColumn id="13" xr3:uid="{853CB2A7-230D-40FD-89A8-0F7D1A74D1F9}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3610,14 +4755,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CF59ECEC-3023-4773-9711-70743C420EDA}" name="Table521__Page_173___2" displayName="Table521__Page_173___2" ref="B2:I22" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:I22" xr:uid="{CF59ECEC-3023-4773-9711-70743C420EDA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AE5B4001-E359-4606-B1BB-BC5AFFC7416D}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{C9BFB071-B29E-4D25-907D-05C792F47A80}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{850887F2-9032-4E1D-BF42-A2528851D4A6}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{080BBF92-39D6-4D79-BCA9-EB87E7063C41}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{D7E53695-2CB0-4AF3-A5D8-17F042776D55}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{D812EBD0-731E-4DDB-ADC1-8F115AF1B336}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{E2AD110D-E5BC-42EF-9155-F449D4C7CC5C}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{EA570DD3-6E63-4436-A360-A7F56CBFD7B9}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{AE5B4001-E359-4606-B1BB-BC5AFFC7416D}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{C9BFB071-B29E-4D25-907D-05C792F47A80}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{850887F2-9032-4E1D-BF42-A2528851D4A6}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{080BBF92-39D6-4D79-BCA9-EB87E7063C41}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{D7E53695-2CB0-4AF3-A5D8-17F042776D55}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{D812EBD0-731E-4DDB-ADC1-8F115AF1B336}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{E2AD110D-E5BC-42EF-9155-F449D4C7CC5C}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{EA570DD3-6E63-4436-A360-A7F56CBFD7B9}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3627,8 +4772,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6551775C-4EBB-418B-8F8B-A8D9CD244109}" name="Table524__Page_175___2" displayName="Table524__Page_175___2" ref="N2:Q51" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="N2:Q51" xr:uid="{6551775C-4EBB-418B-8F8B-A8D9CD244109}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8114989F-6F71-4507-9CBE-9B90C29853D6}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A5DB82E8-E014-42D2-8A7D-72B2EA225969}" uniqueName="2" name="note" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{8114989F-6F71-4507-9CBE-9B90C29853D6}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{A5DB82E8-E014-42D2-8A7D-72B2EA225969}" uniqueName="2" name="note" queryTableFieldId="2" dataDxfId="67"/>
     <tableColumn id="3" xr3:uid="{A84687C8-2061-485C-889A-AA1E33806789}" uniqueName="3" name="As at_x000a_31 march 2023" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6630CBFD-7677-4A45-A146-225621C6BE9F}" uniqueName="4" name="As at_x000a_31 march 2022" queryTableFieldId="4"/>
   </tableColumns>
@@ -3640,9 +4785,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FCC637E4-B2F8-4551-BAE5-AD1A1A256C74}" name="Table522__Page_174___2" displayName="Table522__Page_174___2" ref="B27:D47" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B27:D47" xr:uid="{FCC637E4-B2F8-4551-BAE5-AD1A1A256C74}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C94C071-81F0-4560-B4C2-AE9A0DB7244E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{9C94C071-81F0-4560-B4C2-AE9A0DB7244E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="66"/>
     <tableColumn id="2" xr3:uid="{1499C3D9-0A4B-4E82-B0CF-2EF0A36985EE}" uniqueName="2" name="year ended_x000a_31 march 2023" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{D19E7659-1F3C-47E8-8E98-E29599FA89B9}" uniqueName="3" name="year ended_x000a_31 march 2022" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D19E7659-1F3C-47E8-8E98-E29599FA89B9}" uniqueName="3" name="year ended_x000a_31 march 2022" queryTableFieldId="3" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3967,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1858B527-E2E3-46C3-804F-804B9B569A5E}">
   <dimension ref="B2:Q117"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5917,6 +7062,27 @@
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D18581B-5B66-40F8-BEFA-4B18C6336B79}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8694,7 +9860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664A9FD9-D8C9-4B90-A0DC-A4C86F5B006B}">
   <dimension ref="B2:Q106"/>
   <sheetViews>
-    <sheetView topLeftCell="J42" zoomScale="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="112" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -11318,7 +12484,7 @@
       <c r="B29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>13452</v>
       </c>
       <c r="D29" s="14">
@@ -11404,7 +12570,7 @@
       <c r="B33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>1529</v>
       </c>
       <c r="D33" s="14">
@@ -11448,7 +12614,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14"/>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>16345</v>
       </c>
       <c r="D35" s="14">
@@ -11491,7 +12657,7 @@
       <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>1560</v>
       </c>
       <c r="D37" s="14">
@@ -11517,7 +12683,7 @@
       <c r="B38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="18">
         <v>2438</v>
       </c>
       <c r="D38" s="14">
@@ -11587,7 +12753,7 @@
       <c r="B41" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="18">
         <v>1575</v>
       </c>
       <c r="D41" s="14">
@@ -11625,7 +12791,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
-      <c r="C43" s="19">
+      <c r="C43" s="18">
         <v>5985</v>
       </c>
       <c r="D43" s="14">
@@ -11643,7 +12809,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" s="19">
+      <c r="C44" s="18">
         <v>22330</v>
       </c>
       <c r="D44" s="14">
@@ -11700,7 +12866,7 @@
       <c r="B47" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
         <v>3378</v>
       </c>
       <c r="D47" s="14">
@@ -11723,7 +12889,7 @@
       <c r="B48" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="18">
         <v>1792</v>
       </c>
       <c r="D48" s="14">
@@ -11746,7 +12912,7 @@
       <c r="B49" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
         <v>4881</v>
       </c>
       <c r="D49" s="14">
@@ -11836,7 +13002,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B54" s="14"/>
-      <c r="C54" s="19">
+      <c r="C54" s="18">
         <v>10408</v>
       </c>
       <c r="D54" s="14">
@@ -11854,7 +13020,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="14"/>
-      <c r="C55" s="19">
+      <c r="C55" s="18">
         <v>-4423</v>
       </c>
       <c r="D55" s="14">
@@ -11891,7 +13057,7 @@
       <c r="B57" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="18">
         <v>10952</v>
       </c>
       <c r="D57" s="14">
@@ -11942,7 +13108,7 @@
       <c r="B60" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="18">
         <v>1206</v>
       </c>
       <c r="D60" s="14">
@@ -12000,7 +13166,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B63" s="14"/>
-      <c r="C63" s="19">
+      <c r="C63" s="18">
         <v>12770</v>
       </c>
       <c r="D63" s="14">
@@ -12021,7 +13187,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="19">
+      <c r="C64" s="18">
         <v>23178</v>
       </c>
       <c r="D64" s="14">
@@ -12139,7 +13305,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="14"/>
-      <c r="C70" s="19">
+      <c r="C70" s="18">
         <v>-2571</v>
       </c>
       <c r="D70" s="14">
@@ -12160,7 +13326,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="14"/>
-      <c r="C71" s="19">
+      <c r="C71" s="18">
         <v>-3428</v>
       </c>
       <c r="D71" s="14">
@@ -12183,7 +13349,7 @@
       <c r="B72" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="18">
         <v>2580</v>
       </c>
       <c r="D72" s="14">
@@ -12302,10 +13468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA205DC5-F00A-4410-8EBA-D765C414DE9F}">
-  <dimension ref="B4:G23"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12315,7 +13481,12 @@
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" s="36" customFormat="1" ht="47.4" x14ac:dyDescent="0.9">
+      <c r="B2" s="35" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2021</v>
       </c>
@@ -12328,16 +13499,13 @@
       <c r="F4">
         <v>2024</v>
       </c>
-      <c r="G4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>788</v>
       </c>
@@ -12358,9 +13526,9 @@
         <v>0.5750384319754035</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C7" s="14">
         <f>('2021'!P22+'2021'!P23+'2021'!P19)/'2021'!P35</f>
@@ -12379,9 +13547,9 @@
         <v>0.42246348962336666</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C8" s="14">
         <f>'2021'!P19/'2021'!F3*365</f>
@@ -12400,9 +13568,9 @@
         <v>51.954110228865019</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C9" s="14">
         <f>'2021'!P18/-'2021'!F4*365</f>
@@ -12421,9 +13589,9 @@
         <v>44.266500816294794</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C10" s="14">
         <f>'2021'!P30/-'2021'!F4*365</f>
@@ -12442,14 +13610,14 @@
         <v>138.50307082329161</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>795</v>
       </c>
       <c r="C13" s="14">
         <f>('2021'!P28+'2021'!P38)/-'2021'!P54</f>
@@ -12468,9 +13636,9 @@
         <v>4.1802800466744454</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C14" s="14">
         <f>'2021'!D10/917</f>
@@ -12489,9 +13657,9 @@
         <v>1.9922619047619048</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C15" s="14">
         <f>'2021'!P25/-'2021'!P54</f>
@@ -12512,12 +13680,12 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C19" s="16">
         <f>303/-'2021'!P54</f>
@@ -12538,7 +13706,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C20" s="17">
         <f>303/'2021'!P25</f>
@@ -12559,7 +13727,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C21" s="16">
         <f>'2021'!D10/('2021'!P25-'2021'!P35)</f>
@@ -12580,7 +13748,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C22" s="16">
         <f>303/'2021'!D3</f>
@@ -12601,7 +13769,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C23" s="16">
         <f>3800/'2021'!D3</f>
@@ -12632,39 +13800,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C36E12-7462-4D8D-87F3-EAA06B26FD24}">
   <dimension ref="A3:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>819</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="31" t="s">
         <v>820</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B4">
         <v>274.45</v>
@@ -12679,7 +13848,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B5">
         <v>281.5</v>
@@ -12694,7 +13863,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B6">
         <v>282.7</v>
@@ -12709,7 +13878,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B7">
         <v>277.2</v>
@@ -12724,7 +13893,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B8">
         <v>269.60000000000002</v>
@@ -12739,7 +13908,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B9">
         <v>251.65</v>
@@ -12754,7 +13923,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B10">
         <v>229.65</v>
@@ -12769,7 +13938,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B11">
         <v>222.45</v>
@@ -12784,7 +13953,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B12">
         <v>232.95</v>
@@ -12799,7 +13968,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B13">
         <v>249.02</v>
@@ -12814,7 +13983,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B14">
         <v>243.74</v>
@@ -12829,7 +13998,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B15">
         <v>247.01</v>
@@ -12844,7 +14013,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B16">
         <v>361.77</v>
@@ -12861,11 +14030,14 @@
       <c r="D17" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>2023</v>
-      </c>
-      <c r="C19">
-        <v>2024</v>
+      <c r="A19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" t="s">
+        <v>893</v>
+      </c>
+      <c r="C19" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -12883,26 +14055,26 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B21">
         <f>'2023'!P32/1000</f>
         <v>13.249000000000001</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>'2024'!C54/1000</f>
         <v>10.407999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B22">
         <f>'2023'!P41/1000</f>
         <v>11.053000000000001</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>'2024'!C63/1000</f>
         <v>12.77</v>
       </c>
@@ -12922,23 +14094,23 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>824</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>823</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>825</v>
-      </c>
-      <c r="B26" s="20">
+        <v>824</v>
+      </c>
+      <c r="B26" s="19">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B27" s="16">
         <f>C32/B32-1</f>
@@ -12947,7 +14119,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B28" s="16">
         <f>_xlfn.STDEV.S(C42:C53)*SQRT(12)</f>
@@ -12962,12 +14134,12 @@
         <v>2024</v>
       </c>
       <c r="D31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B32">
         <f>B21+0.5*B22</f>
@@ -12984,7 +14156,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12992,61 +14164,60 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>841</v>
-      </c>
-      <c r="B35" s="22">
+        <v>840</v>
+      </c>
+      <c r="B35" s="20">
         <f>B28</f>
         <v>0.4974998531842173</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B36" s="14">
         <f>SUMSQ(J41:J53)</f>
         <v>8.1263830437961536E-9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>830</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="C40" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="32" t="s">
         <v>832</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="F40" s="32" t="s">
+        <v>827</v>
+      </c>
+      <c r="G40" s="32" t="s">
         <v>834</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>828</v>
-      </c>
-      <c r="G40" s="21" t="s">
+      <c r="H40" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="I40" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="J40" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="K40" s="32" t="s">
         <v>838</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B41" s="14">
         <v>102.0954</v>
@@ -13054,7 +14225,7 @@
       <c r="D41" s="14">
         <v>119.58375880060215</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="20">
         <f>$B$35</f>
         <v>0.4974998531842173</v>
       </c>
@@ -13081,7 +14252,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B42" s="14">
         <v>104.718</v>
@@ -13093,7 +14264,7 @@
       <c r="D42" s="14">
         <v>122.04455437080529</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="20">
         <f t="shared" ref="E42:E53" si="1">$B$35</f>
         <v>0.4974998531842173</v>
       </c>
@@ -13124,7 +14295,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B43" s="14">
         <v>105.1644</v>
@@ -13136,7 +14307,7 @@
       <c r="D43" s="14">
         <v>122.33057948147068</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13167,7 +14338,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B44" s="14">
         <v>103.11839999999999</v>
@@ -13179,7 +14350,7 @@
       <c r="D44" s="14">
         <v>120.12569366457686</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13210,7 +14381,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B45" s="14">
         <v>100.29120000000002</v>
@@ -13222,7 +14393,7 @@
       <c r="D45" s="14">
         <v>117.14101183183165</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13253,7 +14424,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B46" s="14">
         <v>93.613799999999998</v>
@@ -13265,7 +14436,7 @@
       <c r="D46" s="14">
         <v>110.30756574092185</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13296,7 +14467,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B47" s="14">
         <v>85.4298</v>
@@ -13308,7 +14479,7 @@
       <c r="D47" s="14">
         <v>101.96878520315181</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13339,7 +14510,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B48" s="14">
         <v>82.75139999999999</v>
@@ -13351,7 +14522,7 @@
       <c r="D48" s="14">
         <v>99.137170848838338</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13382,7 +14553,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B49" s="14">
         <v>86.657399999999996</v>
@@ -13394,7 +14565,7 @@
       <c r="D49" s="14">
         <v>102.89170814000049</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13425,7 +14596,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B50" s="14">
         <v>92.635440000000003</v>
@@ -13437,7 +14608,7 @@
       <c r="D50" s="14">
         <v>108.71969842770589</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13468,7 +14639,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B51" s="14">
         <v>90.671279999999996</v>
@@ -13480,7 +14651,7 @@
       <c r="D51" s="14">
         <v>106.60660010312007</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13511,7 +14682,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B52" s="14">
         <v>91.887720000000002</v>
@@ -13523,7 +14694,7 @@
       <c r="D52" s="14">
         <v>107.67560635848864</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13554,7 +14725,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B53" s="14">
         <v>134.57844</v>
@@ -13566,7 +14737,7 @@
       <c r="D53" s="14">
         <v>150.22044592568352</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="20">
         <f t="shared" si="1"/>
         <v>0.4974998531842173</v>
       </c>
@@ -13596,70 +14767,69 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="B56" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="B56" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>841</v>
-      </c>
-      <c r="B57" s="16">
+      <c r="B57" s="34">
         <f>_xlfn.STDEV.S(K42:K53)*SQRT(12)</f>
         <v>0.42435679216518957</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>842</v>
-      </c>
-      <c r="B58" s="14">
+      <c r="A58" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="B58" s="33">
         <f>SUMSQ(J62:J74)</f>
         <v>5.562107278130983E-8</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="B61" s="32" t="s">
         <v>830</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="D61" s="32" t="s">
         <v>832</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="E61" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="F61" s="32" t="s">
+        <v>827</v>
+      </c>
+      <c r="G61" s="32" t="s">
         <v>834</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>828</v>
-      </c>
-      <c r="G61" s="21" t="s">
+      <c r="H61" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="I61" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="J61" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="J61" s="21" t="s">
+      <c r="K61" s="32" t="s">
         <v>838</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B62" s="14">
         <v>102.0954</v>
@@ -13667,7 +14837,7 @@
       <c r="D62" s="14">
         <v>119.58399167205027</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="20">
         <f>$B$57</f>
         <v>0.42435679216518957</v>
       </c>
@@ -13694,7 +14864,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B63" s="14">
         <v>104.718</v>
@@ -13706,7 +14876,7 @@
       <c r="D63" s="14">
         <v>122.04468883200725</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="20">
         <f t="shared" ref="E63:E74" si="9">$B$57</f>
         <v>0.42435679216518957</v>
       </c>
@@ -13715,19 +14885,19 @@
         <v>18.601711708537383</v>
       </c>
       <c r="G63" s="14">
-        <f t="shared" ref="G63:G74" si="10">(LN(D63/F63)+(E63^2/2+$B$26)*$B$25)/(E63*SQRT($B$25))</f>
+        <f>(LN(D63/F63)+(E63^2/2+$B$26)*$B$25)/(E63*SQRT($B$25))</f>
         <v>4.8123962122670125</v>
       </c>
       <c r="H63" s="14">
-        <f t="shared" ref="H63:H74" si="11">G63-E63*SQRT($B$25)</f>
+        <f>G63-E63*SQRT($B$25)</f>
         <v>4.3880394201018227</v>
       </c>
       <c r="I63" s="14">
-        <f t="shared" ref="I63:I74" si="12">D63*_xlfn.NORM.S.DIST(G63,1)-F63*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H63,1)</f>
+        <f>D63*_xlfn.NORM.S.DIST(G63,1)-F63*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H63,1)</f>
         <v>104.71791133306013</v>
       </c>
       <c r="J63" s="14">
-        <f t="shared" ref="J63:J74" si="13">B63-I63</f>
+        <f>B63-I63</f>
         <v>8.8666939873860429E-5</v>
       </c>
       <c r="K63" s="16">
@@ -13737,542 +14907,541 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B64" s="14">
         <v>105.1644</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" ref="C64:C74" si="14">B64/B63-1</f>
+        <f>B64/B63-1</f>
         <v>4.2628774422734939E-3</v>
       </c>
       <c r="D64" s="14">
         <v>122.33070953030398</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F64" s="14">
-        <f t="shared" ref="F64:F74" si="15">F63*(1+$B$27)^(1/12)</f>
+        <f>F63*(1+$B$27)^(1/12)</f>
         <v>18.429532022451429</v>
       </c>
       <c r="G64" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D64/F64)+(E64^2/2+$B$26)*$B$25)/(E64*SQRT($B$25))</f>
         <v>4.8398260931027393</v>
       </c>
       <c r="H64" s="14">
-        <f t="shared" si="11"/>
+        <f>G64-E64*SQRT($B$25)</f>
         <v>4.4154693009375494</v>
       </c>
       <c r="I64" s="14">
-        <f t="shared" si="12"/>
+        <f>D64*_xlfn.NORM.S.DIST(G64,1)-F64*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H64,1)</f>
         <v>105.16430978659386</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="13"/>
+        <f>B64-I64</f>
         <v>9.0213406139127983E-5</v>
       </c>
       <c r="K64" s="16">
-        <f t="shared" ref="K64:K74" si="16">D64/D63-1</f>
+        <f>D64/D63-1</f>
         <v>2.3435734978227707E-3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B65" s="14">
         <v>103.11839999999999</v>
       </c>
       <c r="C65" s="16">
-        <f t="shared" si="14"/>
+        <f>B65/B64-1</f>
         <v>-1.945525291828798E-2</v>
       </c>
       <c r="D65" s="14">
         <v>120.1258158231654</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F65" s="14">
-        <f t="shared" si="15"/>
+        <f>F64*(1+$B$27)^(1/12)</f>
         <v>18.258946052296846</v>
       </c>
       <c r="G65" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D65/F65)+(E65^2/2+$B$26)*$B$25)/(E65*SQRT($B$25))</f>
         <v>4.8188785602916067</v>
       </c>
       <c r="H65" s="14">
-        <f t="shared" si="11"/>
+        <f>G65-E65*SQRT($B$25)</f>
         <v>4.3945217681264168</v>
       </c>
       <c r="I65" s="14">
-        <f t="shared" si="12"/>
+        <f>D65*_xlfn.NORM.S.DIST(G65,1)-F65*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H65,1)</f>
         <v>103.11831107983321</v>
       </c>
       <c r="J65" s="14">
-        <f t="shared" si="13"/>
+        <f>B65-I65</f>
         <v>8.8920166788852839E-5</v>
       </c>
       <c r="K65" s="16">
-        <f t="shared" si="16"/>
+        <f>D65/D64-1</f>
         <v>-1.8024040861075674E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B66" s="14">
         <v>100.29120000000002</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" si="14"/>
+        <f>B66/B65-1</f>
         <v>-2.7417027417027229E-2</v>
       </c>
       <c r="D66" s="14">
         <v>117.1412162779623</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F66" s="14">
-        <f t="shared" si="15"/>
+        <f>F65*(1+$B$27)^(1/12)</f>
         <v>18.089939046446844</v>
       </c>
       <c r="G66" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D66/F66)+(E66^2/2+$B$26)*$B$25)/(E66*SQRT($B$25))</f>
         <v>4.7815037599770962</v>
       </c>
       <c r="H66" s="14">
-        <f t="shared" si="11"/>
+        <f>G66-E66*SQRT($B$25)</f>
         <v>4.3571469678119064</v>
       </c>
       <c r="I66" s="14">
-        <f t="shared" si="12"/>
+        <f>D66*_xlfn.NORM.S.DIST(G66,1)-F66*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H66,1)</f>
         <v>100.29113653481164</v>
       </c>
       <c r="J66" s="14">
-        <f t="shared" si="13"/>
+        <f>B66-I66</f>
         <v>6.3465188375744219E-5</v>
       </c>
       <c r="K66" s="16">
-        <f t="shared" si="16"/>
+        <f>D66/D65-1</f>
         <v>-2.4845613116140308E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B67" s="14">
         <v>93.613799999999998</v>
       </c>
       <c r="C67" s="16">
-        <f t="shared" si="14"/>
+        <f>B67/B66-1</f>
         <v>-6.65801186943622E-2</v>
       </c>
       <c r="D67" s="14">
         <v>110.3078782923359</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F67" s="14">
-        <f t="shared" si="15"/>
+        <f>F66*(1+$B$27)^(1/12)</f>
         <v>17.922496389817468</v>
       </c>
       <c r="G67" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D67/F67)+(E67^2/2+$B$26)*$B$25)/(E67*SQRT($B$25))</f>
         <v>4.6617799561371376</v>
       </c>
       <c r="H67" s="14">
-        <f t="shared" si="11"/>
+        <f>G67-E67*SQRT($B$25)</f>
         <v>4.2374231639719477</v>
       </c>
       <c r="I67" s="14">
-        <f t="shared" si="12"/>
+        <f>D67*_xlfn.NORM.S.DIST(G67,1)-F67*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H67,1)</f>
         <v>93.61377172025405</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" si="13"/>
+        <f>B67-I67</f>
         <v>2.827974594765692E-5</v>
       </c>
       <c r="K67" s="16">
-        <f t="shared" si="16"/>
+        <f>D67/D66-1</f>
         <v>-5.8334190157388277E-2</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B68" s="14">
         <v>85.4298</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" si="14"/>
+        <f>B68/B67-1</f>
         <v>-8.7423008146234826E-2</v>
       </c>
       <c r="D68" s="14">
         <v>101.96941220167896</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F68" s="14">
-        <f t="shared" si="15"/>
+        <f>F67*(1+$B$27)^(1/12)</f>
         <v>17.756603602603743</v>
       </c>
       <c r="G68" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D68/F68)+(E68^2/2+$B$26)*$B$25)/(E68*SQRT($B$25))</f>
         <v>4.4984663519590082</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" si="11"/>
+        <f>G68-E68*SQRT($B$25)</f>
         <v>4.0741095597938184</v>
       </c>
       <c r="I68" s="14">
-        <f t="shared" si="12"/>
+        <f>D68*_xlfn.NORM.S.DIST(G68,1)-F68*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H68,1)</f>
         <v>85.429845633367336</v>
       </c>
       <c r="J68" s="14">
-        <f t="shared" si="13"/>
+        <f>B68-I68</f>
         <v>-4.5633367335540242E-5</v>
       </c>
       <c r="K68" s="16">
-        <f t="shared" si="16"/>
+        <f>D68/D67-1</f>
         <v>-7.5592661374181191E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B69" s="14">
         <v>82.75139999999999</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="14"/>
+        <f>B69/B68-1</f>
         <v>-3.1352057478772122E-2</v>
       </c>
       <c r="D69" s="14">
         <v>99.137936231336326</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" si="15"/>
+        <f>F68*(1+$B$27)^(1/12)</f>
         <v>17.592246339027518</v>
       </c>
       <c r="G69" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D69/F69)+(E69^2/2+$B$26)*$B$25)/(E69*SQRT($B$25))</f>
         <v>4.4540191132441906</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" si="11"/>
+        <f>G69-E69*SQRT($B$25)</f>
         <v>4.0296623210790008</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="12"/>
+        <f>D69*_xlfn.NORM.S.DIST(G69,1)-F69*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H69,1)</f>
         <v>82.751469065121313</v>
       </c>
       <c r="J69" s="14">
-        <f t="shared" si="13"/>
+        <f>B69-I69</f>
         <v>-6.9065121323319545E-5</v>
       </c>
       <c r="K69" s="16">
-        <f t="shared" si="16"/>
+        <f>D69/D68-1</f>
         <v>-2.7767895383592478E-2</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B70" s="14">
         <v>86.657399999999996</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="14"/>
+        <f>B70/B69-1</f>
         <v>4.7201618341200291E-2</v>
       </c>
       <c r="D70" s="14">
         <v>102.89222955588342</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F70" s="14">
-        <f t="shared" si="15"/>
+        <f>F69*(1+$B$27)^(1/12)</f>
         <v>17.429410386096887</v>
       </c>
       <c r="G70" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D70/F70)+(E70^2/2+$B$26)*$B$25)/(E70*SQRT($B$25))</f>
         <v>4.5635240753174422</v>
       </c>
       <c r="H70" s="14">
-        <f t="shared" si="11"/>
+        <f>G70-E70*SQRT($B$25)</f>
         <v>4.1391672831522524</v>
       </c>
       <c r="I70" s="14">
-        <f t="shared" si="12"/>
+        <f>D70*_xlfn.NORM.S.DIST(G70,1)-F70*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H70,1)</f>
         <v>86.657422142262078</v>
       </c>
       <c r="J70" s="14">
-        <f t="shared" si="13"/>
+        <f>B70-I70</f>
         <v>-2.2142262082525122E-5</v>
       </c>
       <c r="K70" s="16">
-        <f t="shared" si="16"/>
+        <f>D70/D69-1</f>
         <v>3.7869391549431919E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B71" s="14">
         <v>92.635440000000003</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="14"/>
+        <f>B71/B70-1</f>
         <v>6.8984760678257206E-2</v>
       </c>
       <c r="D71" s="14">
         <v>108.71994283716835</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F71" s="14">
-        <f t="shared" si="15"/>
+        <f>F70*(1+$B$27)^(1/12)</f>
         <v>17.268081662377117</v>
       </c>
       <c r="G71" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D71/F71)+(E71^2/2+$B$26)*$B$25)/(E71*SQRT($B$25))</f>
         <v>4.715265120615201</v>
       </c>
       <c r="H71" s="14">
-        <f t="shared" si="11"/>
+        <f>G71-E71*SQRT($B$25)</f>
         <v>4.2909083284500111</v>
       </c>
       <c r="I71" s="14">
-        <f t="shared" si="12"/>
+        <f>D71*_xlfn.NORM.S.DIST(G71,1)-F71*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H71,1)</f>
         <v>92.635394702960298</v>
       </c>
       <c r="J71" s="14">
-        <f t="shared" si="13"/>
+        <f>B71-I71</f>
         <v>4.5297039704905728E-5</v>
       </c>
       <c r="K71" s="16">
-        <f t="shared" si="16"/>
+        <f>D71/D70-1</f>
         <v>5.6639002832762575E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B72" s="14">
         <v>90.671279999999996</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="14"/>
+        <f>B72/B71-1</f>
         <v>-2.1203116215565032E-2</v>
       </c>
       <c r="D72" s="14">
         <v>106.60692111243664</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F72" s="14">
-        <f t="shared" si="15"/>
+        <f>F71*(1+$B$27)^(1/12)</f>
         <v>17.10824621677293</v>
       </c>
       <c r="G72" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D72/F72)+(E72^2/2+$B$26)*$B$25)/(E72*SQRT($B$25))</f>
         <v>4.6909280910383737</v>
       </c>
       <c r="H72" s="14">
-        <f t="shared" si="11"/>
+        <f>G72-E72*SQRT($B$25)</f>
         <v>4.2665712988731839</v>
       </c>
       <c r="I72" s="14">
-        <f t="shared" si="12"/>
+        <f>D72*_xlfn.NORM.S.DIST(G72,1)-F72*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H72,1)</f>
         <v>90.671254913405406</v>
       </c>
       <c r="J72" s="14">
-        <f t="shared" si="13"/>
+        <f>B72-I72</f>
         <v>2.508659459010687E-5</v>
       </c>
       <c r="K72" s="16">
-        <f t="shared" si="16"/>
+        <f>D72/D71-1</f>
         <v>-1.9435456546334051E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B73" s="14">
         <v>91.887720000000002</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="14"/>
+        <f>B73/B72-1</f>
         <v>1.3415935012718538E-2</v>
       </c>
       <c r="D73" s="14">
         <v>107.67583814664701</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F73" s="14">
-        <f t="shared" si="15"/>
+        <f>F72*(1+$B$27)^(1/12)</f>
         <v>16.949890227322065</v>
       </c>
       <c r="G73" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D73/F73)+(E73^2/2+$B$26)*$B$25)/(E73*SQRT($B$25))</f>
         <v>4.7363521405728903</v>
       </c>
       <c r="H73" s="14">
-        <f t="shared" si="11"/>
+        <f>G73-E73*SQRT($B$25)</f>
         <v>4.3119953484077005</v>
       </c>
       <c r="I73" s="14">
-        <f t="shared" si="12"/>
+        <f>D73*_xlfn.NORM.S.DIST(G73,1)-F73*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H73,1)</f>
         <v>91.887671889931084</v>
       </c>
       <c r="J73" s="14">
-        <f t="shared" si="13"/>
+        <f>B73-I73</f>
         <v>4.811006891713987E-5</v>
       </c>
       <c r="K73" s="16">
-        <f t="shared" si="16"/>
+        <f>D73/D72-1</f>
         <v>1.0026713303942003E-2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B74" s="14">
         <v>134.57844</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="14"/>
+        <f>B74/B73-1</f>
         <v>0.46459657503744789</v>
       </c>
       <c r="D74" s="14">
         <v>150.22037458408283</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="20">
         <f t="shared" si="9"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F74" s="14">
-        <f t="shared" si="15"/>
+        <f>F73*(1+$B$27)^(1/12)</f>
         <v>16.793000000000013</v>
       </c>
       <c r="G74" s="14">
-        <f t="shared" si="10"/>
+        <f>(LN(D74/F74)+(E74^2/2+$B$26)*$B$25)/(E74*SQRT($B$25))</f>
         <v>5.5429314055249028</v>
       </c>
       <c r="H74" s="14">
-        <f t="shared" si="11"/>
+        <f>G74-E74*SQRT($B$25)</f>
         <v>5.118574613359713</v>
       </c>
       <c r="I74" s="14">
-        <f t="shared" si="12"/>
+        <f>D74*_xlfn.NORM.S.DIST(G74,1)-F74*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H74,1)</f>
         <v>134.57833520316399</v>
       </c>
       <c r="J74" s="14">
-        <f t="shared" si="13"/>
+        <f>B74-I74</f>
         <v>1.0479683601261058E-4</v>
       </c>
       <c r="K74" s="16">
-        <f t="shared" si="16"/>
+        <f>D74/D73-1</f>
         <v>0.39511683558472166</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="B77" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="B77" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>841</v>
-      </c>
-      <c r="B78" s="16">
+      <c r="B78" s="34">
         <f>_xlfn.STDEV.S(K63:K74)*SQRT(12)</f>
         <v>0.42435162417488148</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>842</v>
-      </c>
-      <c r="B79" s="14">
+      <c r="A79" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="B79" s="33">
         <f>B58</f>
         <v>5.562107278130983E-8</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="B82" s="32" t="s">
         <v>830</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="C82" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="D82" s="32" t="s">
         <v>832</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="E82" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="F82" s="32" t="s">
+        <v>827</v>
+      </c>
+      <c r="G82" s="32" t="s">
         <v>834</v>
       </c>
-      <c r="F82" s="21" t="s">
-        <v>828</v>
-      </c>
-      <c r="G82" s="21" t="s">
+      <c r="H82" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="H82" s="21" t="s">
+      <c r="I82" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="I82" s="21" t="s">
+      <c r="J82" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="J82" s="21" t="s">
+      <c r="K82" s="32" t="s">
         <v>838</v>
-      </c>
-      <c r="K82" s="21" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B83" s="14">
         <v>102.0954</v>
@@ -14280,7 +15449,7 @@
       <c r="D83" s="14">
         <v>119.58399167205027</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="20">
         <f>$B$57</f>
         <v>0.42435679216518957</v>
       </c>
@@ -14307,7 +15476,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B84" s="14">
         <v>104.718</v>
@@ -14319,8 +15488,8 @@
       <c r="D84" s="14">
         <v>122.04468883200725</v>
       </c>
-      <c r="E84" s="22">
-        <f t="shared" ref="E84:E95" si="17">$B$57</f>
+      <c r="E84" s="20">
+        <f t="shared" ref="E84:E95" si="10">$B$57</f>
         <v>0.42435679216518957</v>
       </c>
       <c r="F84" s="14">
@@ -14328,19 +15497,19 @@
         <v>18.601711708537383</v>
       </c>
       <c r="G84" s="14">
-        <f t="shared" ref="G84:G95" si="18">(LN(D84/F84)+(E84^2/2+$B$26)*$B$25)/(E84*SQRT($B$25))</f>
+        <f t="shared" ref="G84:G95" si="11">(LN(D84/F84)+(E84^2/2+$B$26)*$B$25)/(E84*SQRT($B$25))</f>
         <v>4.8123962122670125</v>
       </c>
       <c r="H84" s="14">
-        <f t="shared" ref="H84:H95" si="19">G84-E84*SQRT($B$25)</f>
+        <f t="shared" ref="H84:H95" si="12">G84-E84*SQRT($B$25)</f>
         <v>4.3880394201018227</v>
       </c>
       <c r="I84" s="14">
-        <f t="shared" ref="I84:I95" si="20">D84*_xlfn.NORM.S.DIST(G84,1)-F84*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H84,1)</f>
+        <f t="shared" ref="I84:I95" si="13">D84*_xlfn.NORM.S.DIST(G84,1)-F84*EXP(-$B$26*$B$25)*_xlfn.NORM.S.DIST(H84,1)</f>
         <v>104.71791133306013</v>
       </c>
       <c r="J84" s="14">
-        <f t="shared" ref="J84:J95" si="21">B84-I84</f>
+        <f t="shared" ref="J84:J95" si="14">B84-I84</f>
         <v>8.8666939873860429E-5</v>
       </c>
       <c r="K84" s="16">
@@ -14350,497 +15519,505 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B85" s="14">
         <v>105.1644</v>
       </c>
       <c r="C85" s="16">
-        <f t="shared" ref="C85:C95" si="22">B85/B84-1</f>
+        <f t="shared" ref="C85:C95" si="15">B85/B84-1</f>
         <v>4.2628774422734939E-3</v>
       </c>
       <c r="D85" s="14">
         <v>122.33070953030398</v>
       </c>
-      <c r="E85" s="22">
-        <f t="shared" si="17"/>
+      <c r="E85" s="20">
+        <f t="shared" si="10"/>
         <v>0.42435679216518957</v>
       </c>
       <c r="F85" s="14">
-        <f t="shared" ref="F85:F95" si="23">F84*(1+$B$27)^(1/12)</f>
+        <f t="shared" ref="F85:F95" si="16">F84*(1+$B$27)^(1/12)</f>
         <v>18.429532022451429</v>
       </c>
       <c r="G85" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>4.8398260931027393</v>
       </c>
       <c r="H85" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>4.4154693009375494</v>
       </c>
       <c r="I85" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>105.16430978659386</v>
       </c>
       <c r="J85" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>9.0213406139127983E-5</v>
       </c>
       <c r="K85" s="16">
-        <f t="shared" ref="K85:K95" si="24">D85/D84-1</f>
+        <f t="shared" ref="K85:K95" si="17">D85/D84-1</f>
         <v>2.3435734978227707E-3</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B86" s="14">
         <v>103.11839999999999</v>
       </c>
       <c r="C86" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-1.945525291828798E-2</v>
       </c>
       <c r="D86" s="14">
         <v>120.1258158231654</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F86" s="14">
+        <f t="shared" si="16"/>
+        <v>18.258946052296846</v>
+      </c>
+      <c r="G86" s="14">
+        <f t="shared" si="11"/>
+        <v>4.8188785602916067</v>
+      </c>
+      <c r="H86" s="14">
+        <f t="shared" si="12"/>
+        <v>4.3945217681264168</v>
+      </c>
+      <c r="I86" s="14">
+        <f t="shared" si="13"/>
+        <v>103.11831107983321</v>
+      </c>
+      <c r="J86" s="14">
+        <f t="shared" si="14"/>
+        <v>8.8920166788852839E-5</v>
+      </c>
+      <c r="K86" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F86" s="14">
-        <f t="shared" si="23"/>
-        <v>18.258946052296846</v>
-      </c>
-      <c r="G86" s="14">
-        <f t="shared" si="18"/>
-        <v>4.8188785602916067</v>
-      </c>
-      <c r="H86" s="14">
-        <f t="shared" si="19"/>
-        <v>4.3945217681264168</v>
-      </c>
-      <c r="I86" s="14">
-        <f t="shared" si="20"/>
-        <v>103.11831107983321</v>
-      </c>
-      <c r="J86" s="14">
-        <f t="shared" si="21"/>
-        <v>8.8920166788852839E-5</v>
-      </c>
-      <c r="K86" s="16">
-        <f t="shared" si="24"/>
         <v>-1.8024040861075674E-2</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B87" s="14">
         <v>100.29120000000002</v>
       </c>
       <c r="C87" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-2.7417027417027229E-2</v>
       </c>
       <c r="D87" s="14">
         <v>117.1412162779623</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F87" s="14">
+        <f t="shared" si="16"/>
+        <v>18.089939046446844</v>
+      </c>
+      <c r="G87" s="14">
+        <f t="shared" si="11"/>
+        <v>4.7815037599770962</v>
+      </c>
+      <c r="H87" s="14">
+        <f t="shared" si="12"/>
+        <v>4.3571469678119064</v>
+      </c>
+      <c r="I87" s="14">
+        <f t="shared" si="13"/>
+        <v>100.29113653481164</v>
+      </c>
+      <c r="J87" s="14">
+        <f t="shared" si="14"/>
+        <v>6.3465188375744219E-5</v>
+      </c>
+      <c r="K87" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F87" s="14">
-        <f t="shared" si="23"/>
-        <v>18.089939046446844</v>
-      </c>
-      <c r="G87" s="14">
-        <f t="shared" si="18"/>
-        <v>4.7815037599770962</v>
-      </c>
-      <c r="H87" s="14">
-        <f t="shared" si="19"/>
-        <v>4.3571469678119064</v>
-      </c>
-      <c r="I87" s="14">
-        <f t="shared" si="20"/>
-        <v>100.29113653481164</v>
-      </c>
-      <c r="J87" s="14">
-        <f t="shared" si="21"/>
-        <v>6.3465188375744219E-5</v>
-      </c>
-      <c r="K87" s="16">
-        <f t="shared" si="24"/>
         <v>-2.4845613116140308E-2</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B88" s="14">
         <v>93.613799999999998</v>
       </c>
       <c r="C88" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-6.65801186943622E-2</v>
       </c>
       <c r="D88" s="14">
         <v>110.3078782923359</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F88" s="14">
+        <f t="shared" si="16"/>
+        <v>17.922496389817468</v>
+      </c>
+      <c r="G88" s="14">
+        <f t="shared" si="11"/>
+        <v>4.6617799561371376</v>
+      </c>
+      <c r="H88" s="14">
+        <f t="shared" si="12"/>
+        <v>4.2374231639719477</v>
+      </c>
+      <c r="I88" s="14">
+        <f t="shared" si="13"/>
+        <v>93.61377172025405</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="14"/>
+        <v>2.827974594765692E-5</v>
+      </c>
+      <c r="K88" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F88" s="14">
-        <f t="shared" si="23"/>
-        <v>17.922496389817468</v>
-      </c>
-      <c r="G88" s="14">
-        <f t="shared" si="18"/>
-        <v>4.6617799561371376</v>
-      </c>
-      <c r="H88" s="14">
-        <f t="shared" si="19"/>
-        <v>4.2374231639719477</v>
-      </c>
-      <c r="I88" s="14">
-        <f t="shared" si="20"/>
-        <v>93.61377172025405</v>
-      </c>
-      <c r="J88" s="14">
-        <f t="shared" si="21"/>
-        <v>2.827974594765692E-5</v>
-      </c>
-      <c r="K88" s="16">
-        <f t="shared" si="24"/>
         <v>-5.8334190157388277E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B89" s="14">
         <v>85.4298</v>
       </c>
       <c r="C89" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-8.7423008146234826E-2</v>
       </c>
       <c r="D89" s="14">
         <v>101.96941220167896</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F89" s="14">
+        <f t="shared" si="16"/>
+        <v>17.756603602603743</v>
+      </c>
+      <c r="G89" s="14">
+        <f t="shared" si="11"/>
+        <v>4.4984663519590082</v>
+      </c>
+      <c r="H89" s="14">
+        <f t="shared" si="12"/>
+        <v>4.0741095597938184</v>
+      </c>
+      <c r="I89" s="14">
+        <f t="shared" si="13"/>
+        <v>85.429845633367336</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="14"/>
+        <v>-4.5633367335540242E-5</v>
+      </c>
+      <c r="K89" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F89" s="14">
-        <f t="shared" si="23"/>
-        <v>17.756603602603743</v>
-      </c>
-      <c r="G89" s="14">
-        <f t="shared" si="18"/>
-        <v>4.4984663519590082</v>
-      </c>
-      <c r="H89" s="14">
-        <f t="shared" si="19"/>
-        <v>4.0741095597938184</v>
-      </c>
-      <c r="I89" s="14">
-        <f t="shared" si="20"/>
-        <v>85.429845633367336</v>
-      </c>
-      <c r="J89" s="14">
-        <f t="shared" si="21"/>
-        <v>-4.5633367335540242E-5</v>
-      </c>
-      <c r="K89" s="16">
-        <f t="shared" si="24"/>
         <v>-7.5592661374181191E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B90" s="14">
         <v>82.75139999999999</v>
       </c>
       <c r="C90" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-3.1352057478772122E-2</v>
       </c>
       <c r="D90" s="14">
         <v>99.137936231336326</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F90" s="14">
+        <f t="shared" si="16"/>
+        <v>17.592246339027518</v>
+      </c>
+      <c r="G90" s="14">
+        <f t="shared" si="11"/>
+        <v>4.4540191132441906</v>
+      </c>
+      <c r="H90" s="14">
+        <f t="shared" si="12"/>
+        <v>4.0296623210790008</v>
+      </c>
+      <c r="I90" s="14">
+        <f t="shared" si="13"/>
+        <v>82.751469065121313</v>
+      </c>
+      <c r="J90" s="14">
+        <f t="shared" si="14"/>
+        <v>-6.9065121323319545E-5</v>
+      </c>
+      <c r="K90" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F90" s="14">
-        <f t="shared" si="23"/>
-        <v>17.592246339027518</v>
-      </c>
-      <c r="G90" s="14">
-        <f t="shared" si="18"/>
-        <v>4.4540191132441906</v>
-      </c>
-      <c r="H90" s="14">
-        <f t="shared" si="19"/>
-        <v>4.0296623210790008</v>
-      </c>
-      <c r="I90" s="14">
-        <f t="shared" si="20"/>
-        <v>82.751469065121313</v>
-      </c>
-      <c r="J90" s="14">
-        <f t="shared" si="21"/>
-        <v>-6.9065121323319545E-5</v>
-      </c>
-      <c r="K90" s="16">
-        <f t="shared" si="24"/>
         <v>-2.7767895383592478E-2</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B91" s="14">
         <v>86.657399999999996</v>
       </c>
       <c r="C91" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>4.7201618341200291E-2</v>
       </c>
       <c r="D91" s="14">
         <v>102.89222955588342</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E91" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F91" s="14">
+        <f t="shared" si="16"/>
+        <v>17.429410386096887</v>
+      </c>
+      <c r="G91" s="14">
+        <f t="shared" si="11"/>
+        <v>4.5635240753174422</v>
+      </c>
+      <c r="H91" s="14">
+        <f t="shared" si="12"/>
+        <v>4.1391672831522524</v>
+      </c>
+      <c r="I91" s="14">
+        <f t="shared" si="13"/>
+        <v>86.657422142262078</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" si="14"/>
+        <v>-2.2142262082525122E-5</v>
+      </c>
+      <c r="K91" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F91" s="14">
-        <f t="shared" si="23"/>
-        <v>17.429410386096887</v>
-      </c>
-      <c r="G91" s="14">
-        <f t="shared" si="18"/>
-        <v>4.5635240753174422</v>
-      </c>
-      <c r="H91" s="14">
-        <f t="shared" si="19"/>
-        <v>4.1391672831522524</v>
-      </c>
-      <c r="I91" s="14">
-        <f t="shared" si="20"/>
-        <v>86.657422142262078</v>
-      </c>
-      <c r="J91" s="14">
-        <f t="shared" si="21"/>
-        <v>-2.2142262082525122E-5</v>
-      </c>
-      <c r="K91" s="16">
-        <f t="shared" si="24"/>
         <v>3.7869391549431919E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B92" s="14">
         <v>92.635440000000003</v>
       </c>
       <c r="C92" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>6.8984760678257206E-2</v>
       </c>
       <c r="D92" s="14">
         <v>108.71994283716835</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F92" s="14">
+        <f t="shared" si="16"/>
+        <v>17.268081662377117</v>
+      </c>
+      <c r="G92" s="14">
+        <f t="shared" si="11"/>
+        <v>4.715265120615201</v>
+      </c>
+      <c r="H92" s="14">
+        <f t="shared" si="12"/>
+        <v>4.2909083284500111</v>
+      </c>
+      <c r="I92" s="14">
+        <f t="shared" si="13"/>
+        <v>92.635394702960298</v>
+      </c>
+      <c r="J92" s="14">
+        <f t="shared" si="14"/>
+        <v>4.5297039704905728E-5</v>
+      </c>
+      <c r="K92" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F92" s="14">
-        <f t="shared" si="23"/>
-        <v>17.268081662377117</v>
-      </c>
-      <c r="G92" s="14">
-        <f t="shared" si="18"/>
-        <v>4.715265120615201</v>
-      </c>
-      <c r="H92" s="14">
-        <f t="shared" si="19"/>
-        <v>4.2909083284500111</v>
-      </c>
-      <c r="I92" s="14">
-        <f t="shared" si="20"/>
-        <v>92.635394702960298</v>
-      </c>
-      <c r="J92" s="14">
-        <f t="shared" si="21"/>
-        <v>4.5297039704905728E-5</v>
-      </c>
-      <c r="K92" s="16">
-        <f t="shared" si="24"/>
         <v>5.6639002832762575E-2</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B93" s="14">
         <v>90.671279999999996</v>
       </c>
       <c r="C93" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-2.1203116215565032E-2</v>
       </c>
       <c r="D93" s="14">
         <v>106.60692111243664</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E93" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F93" s="14">
+        <f t="shared" si="16"/>
+        <v>17.10824621677293</v>
+      </c>
+      <c r="G93" s="14">
+        <f t="shared" si="11"/>
+        <v>4.6909280910383737</v>
+      </c>
+      <c r="H93" s="14">
+        <f t="shared" si="12"/>
+        <v>4.2665712988731839</v>
+      </c>
+      <c r="I93" s="14">
+        <f t="shared" si="13"/>
+        <v>90.671254913405406</v>
+      </c>
+      <c r="J93" s="14">
+        <f t="shared" si="14"/>
+        <v>2.508659459010687E-5</v>
+      </c>
+      <c r="K93" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F93" s="14">
-        <f t="shared" si="23"/>
-        <v>17.10824621677293</v>
-      </c>
-      <c r="G93" s="14">
-        <f t="shared" si="18"/>
-        <v>4.6909280910383737</v>
-      </c>
-      <c r="H93" s="14">
-        <f t="shared" si="19"/>
-        <v>4.2665712988731839</v>
-      </c>
-      <c r="I93" s="14">
-        <f t="shared" si="20"/>
-        <v>90.671254913405406</v>
-      </c>
-      <c r="J93" s="14">
-        <f t="shared" si="21"/>
-        <v>2.508659459010687E-5</v>
-      </c>
-      <c r="K93" s="16">
-        <f t="shared" si="24"/>
         <v>-1.9435456546334051E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B94" s="14">
         <v>91.887720000000002</v>
       </c>
       <c r="C94" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>1.3415935012718538E-2</v>
       </c>
       <c r="D94" s="14">
         <v>107.67583814664701</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F94" s="14">
+        <f t="shared" si="16"/>
+        <v>16.949890227322065</v>
+      </c>
+      <c r="G94" s="14">
+        <f t="shared" si="11"/>
+        <v>4.7363521405728903</v>
+      </c>
+      <c r="H94" s="14">
+        <f t="shared" si="12"/>
+        <v>4.3119953484077005</v>
+      </c>
+      <c r="I94" s="14">
+        <f t="shared" si="13"/>
+        <v>91.887671889931084</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" si="14"/>
+        <v>4.811006891713987E-5</v>
+      </c>
+      <c r="K94" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F94" s="14">
-        <f t="shared" si="23"/>
-        <v>16.949890227322065</v>
-      </c>
-      <c r="G94" s="14">
-        <f t="shared" si="18"/>
-        <v>4.7363521405728903</v>
-      </c>
-      <c r="H94" s="14">
-        <f t="shared" si="19"/>
-        <v>4.3119953484077005</v>
-      </c>
-      <c r="I94" s="14">
-        <f t="shared" si="20"/>
-        <v>91.887671889931084</v>
-      </c>
-      <c r="J94" s="14">
-        <f t="shared" si="21"/>
-        <v>4.811006891713987E-5</v>
-      </c>
-      <c r="K94" s="16">
-        <f t="shared" si="24"/>
         <v>1.0026713303942003E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B95" s="14">
         <v>134.57844</v>
       </c>
       <c r="C95" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>0.46459657503744789</v>
       </c>
       <c r="D95" s="14">
         <v>150.22037458408283</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="20">
+        <f t="shared" si="10"/>
+        <v>0.42435679216518957</v>
+      </c>
+      <c r="F95" s="14">
+        <f t="shared" si="16"/>
+        <v>16.793000000000013</v>
+      </c>
+      <c r="G95" s="14">
+        <f t="shared" si="11"/>
+        <v>5.5429314055249028</v>
+      </c>
+      <c r="H95" s="14">
+        <f t="shared" si="12"/>
+        <v>5.118574613359713</v>
+      </c>
+      <c r="I95" s="14">
+        <f t="shared" si="13"/>
+        <v>134.57833520316399</v>
+      </c>
+      <c r="J95" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0479683601261058E-4</v>
+      </c>
+      <c r="K95" s="16">
         <f t="shared" si="17"/>
-        <v>0.42435679216518957</v>
-      </c>
-      <c r="F95" s="14">
-        <f t="shared" si="23"/>
-        <v>16.793000000000013</v>
-      </c>
-      <c r="G95" s="14">
-        <f t="shared" si="18"/>
-        <v>5.5429314055249028</v>
-      </c>
-      <c r="H95" s="14">
-        <f t="shared" si="19"/>
-        <v>5.118574613359713</v>
-      </c>
-      <c r="I95" s="14">
-        <f t="shared" si="20"/>
-        <v>134.57833520316399</v>
-      </c>
-      <c r="J95" s="14">
-        <f t="shared" si="21"/>
-        <v>1.0479683601261058E-4</v>
-      </c>
-      <c r="K95" s="16">
-        <f t="shared" si="24"/>
         <v>0.39511683558472166</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>843</v>
-      </c>
-      <c r="B98">
+      <c r="A98" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="B98" s="15">
         <f>(LN(D95/F95)+(B26-B78^2/2)*B25/(B78*SQRT(B25)))</f>
         <v>2.1462795110649839</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>844</v>
-      </c>
-      <c r="B99" s="16">
+      <c r="A99" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="B99" s="34">
         <f>_xlfn.NORM.S.DIST(-B98,1)</f>
         <v>1.5925342626181272E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="6">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14848,426 +16025,427 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58318B-1785-437A-9DE8-F84DB9C5FFED}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
         <v>879</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>878</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="B2" s="4">
         <v>2021</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>4.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>2.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>866</v>
+      <c r="G2" s="4" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B3" s="6">
         <v>2022</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>4.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>2.6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>12.5</v>
       </c>
-      <c r="G3" t="s">
-        <v>866</v>
+      <c r="G3" s="6" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>878</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="B4" s="4">
         <v>2023</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>2.7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>866</v>
+      <c r="G4" s="4" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>878</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B5" s="6">
         <v>2024</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>3.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>2.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <v>1.2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>13.5</v>
       </c>
-      <c r="G5" t="s">
-        <v>866</v>
+      <c r="G5" s="6" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>855</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B6" s="4">
         <v>2021</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>3.7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="12">
         <v>1.2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>11.5</v>
       </c>
-      <c r="G6" t="s">
-        <v>868</v>
+      <c r="G6" s="4" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>855</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B7" s="6">
         <v>2022</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>1.4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>3.8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <v>1.2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>11.7</v>
       </c>
-      <c r="G7" t="s">
-        <v>868</v>
+      <c r="G7" s="6" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>855</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B8" s="4">
         <v>2023</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>1.3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>868</v>
+      <c r="G8" s="4" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>855</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B9" s="6">
         <v>2024</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>1.3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>4.2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="13">
         <v>1.3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>12.2</v>
       </c>
-      <c r="G9" t="s">
-        <v>868</v>
+      <c r="G9" s="6" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="F17" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="B10">
+      <c r="B18" s="4">
         <v>2021</v>
       </c>
-      <c r="C10">
-        <v>1.8</v>
-      </c>
-      <c r="D10">
-        <v>3.5</v>
-      </c>
-      <c r="E10">
-        <v>1.3</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B11">
-        <v>2022</v>
-      </c>
-      <c r="C11">
-        <v>1.7</v>
-      </c>
-      <c r="D11">
-        <v>3.7</v>
-      </c>
-      <c r="E11">
-        <v>1.4</v>
-      </c>
-      <c r="F11">
-        <v>12.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>857</v>
-      </c>
-      <c r="B12">
-        <v>2023</v>
-      </c>
-      <c r="C12">
-        <v>1.6</v>
-      </c>
-      <c r="D12">
-        <v>3.8</v>
-      </c>
-      <c r="E12">
-        <v>1.4</v>
-      </c>
-      <c r="F12">
-        <v>12.8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>857</v>
-      </c>
-      <c r="B13">
-        <v>2024</v>
-      </c>
-      <c r="C13">
-        <v>1.5</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>1.5</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>854</v>
-      </c>
-      <c r="B14">
-        <v>2021</v>
-      </c>
-      <c r="C14">
-        <v>0.8</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>1.5</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>854</v>
-      </c>
-      <c r="B15">
-        <v>2022</v>
-      </c>
-      <c r="C15">
-        <v>0.7</v>
-      </c>
-      <c r="D15">
-        <v>6.2</v>
-      </c>
-      <c r="E15">
-        <v>1.6</v>
-      </c>
-      <c r="F15">
-        <v>18.3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>854</v>
-      </c>
-      <c r="B16">
-        <v>2023</v>
-      </c>
-      <c r="C16">
-        <v>0.7</v>
-      </c>
-      <c r="D16">
-        <v>6.4</v>
-      </c>
-      <c r="E16">
-        <v>1.7</v>
-      </c>
-      <c r="F16">
-        <v>18.5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B17">
-        <v>2024</v>
-      </c>
-      <c r="C17">
-        <v>0.6</v>
-      </c>
-      <c r="D17">
-        <v>6.5</v>
-      </c>
-      <c r="E17">
-        <v>1.7</v>
-      </c>
-      <c r="F17">
-        <v>18.7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>858</v>
-      </c>
-      <c r="B18">
-        <v>2021</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="C18" s="22">
         <f>'Ratio analysis'!C13</f>
         <v>5.2040038131553858</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="23">
         <f>'Ratio analysis'!C14</f>
         <v>2.9454743729552888</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="24">
         <f>'Ratio analysis'!C6</f>
         <v>0.94091833458203999</v>
       </c>
@@ -15275,52 +16453,52 @@
         <f>'Ratio analysis'!C21</f>
         <v>0.16906609914872309</v>
       </c>
-      <c r="G18" t="s">
-        <v>866</v>
+      <c r="G18" s="4" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>858</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B19" s="6">
         <v>2022</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="25">
         <f>'Ratio analysis'!D14</f>
         <v>4.0248198558847079</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="26">
         <f>'Ratio analysis'!D6</f>
         <v>0.76997054236700746</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="27">
         <f>'Ratio analysis'!D21</f>
         <v>0.35622165532879818</v>
       </c>
-      <c r="G19" t="s">
-        <v>866</v>
+      <c r="G19" s="6" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>858</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B20" s="4">
         <v>2023</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="22">
         <f>'Ratio analysis'!E13</f>
         <v>4.5872162485065715</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="23">
         <f>'Ratio analysis'!E14</f>
         <v>2.4452945677123181</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="24">
         <f>'Ratio analysis'!E6</f>
         <v>0.52419050494376929</v>
       </c>
@@ -15328,955 +16506,955 @@
         <f>'Ratio analysis'!E21</f>
         <v>0.31391808270307436</v>
       </c>
-      <c r="G20" t="s">
-        <v>866</v>
+      <c r="G20" s="4" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>858</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B21" s="6">
         <v>2024</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="27">
         <f>'Ratio analysis'!F13</f>
         <v>4.1802800466744454</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="25">
         <f>'Ratio analysis'!F14</f>
         <v>1.9922619047619048</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="26">
         <f>'Ratio analysis'!F6</f>
         <v>0.5750384319754035</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="27">
         <f>Table14[[#This Row],[Column5]]</f>
         <v>0.28074148632779733</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F33" s="6">
+        <v>11</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="F35" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="F36" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F37" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="F41" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F42" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F45" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="F48" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F49" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="F51" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="F52" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>11</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F54" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E55" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="F55" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>868</v>
+      </c>
+      <c r="B56" s="29">
+        <v>2023</v>
+      </c>
+      <c r="C56" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="D56" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="E56" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="F56" s="29">
+        <v>10</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>877</v>
-      </c>
-      <c r="B22">
+      <c r="B58" s="6">
         <v>2021</v>
       </c>
-      <c r="C22">
-        <v>1.3</v>
-      </c>
-      <c r="D22">
-        <v>3.5</v>
-      </c>
-      <c r="E22">
-        <v>1.3</v>
-      </c>
-      <c r="F22">
-        <v>11.5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>877</v>
-      </c>
-      <c r="B23">
+      <c r="C58" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F58" s="6">
+        <v>9</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="B59" s="4">
         <v>2022</v>
       </c>
-      <c r="C23">
+      <c r="C59" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F59" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2</v>
+      </c>
+      <c r="E60" s="13">
         <v>1.2</v>
       </c>
-      <c r="D23">
-        <v>3.7</v>
-      </c>
-      <c r="E23">
-        <v>1.4</v>
-      </c>
-      <c r="F23">
-        <v>11.8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>877</v>
-      </c>
-      <c r="B24">
-        <v>2023</v>
-      </c>
-      <c r="C24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D24">
-        <v>3.9</v>
-      </c>
-      <c r="E24">
-        <v>1.4</v>
-      </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>877</v>
-      </c>
-      <c r="B25">
+      <c r="F60" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="B61" s="4">
         <v>2024</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>1.5</v>
-      </c>
-      <c r="F25">
-        <v>12.3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>876</v>
-      </c>
-      <c r="B26">
-        <v>2021</v>
-      </c>
-      <c r="C26">
-        <v>2.5</v>
-      </c>
-      <c r="D26">
-        <v>1.8</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>876</v>
-      </c>
-      <c r="B27">
-        <v>2022</v>
-      </c>
-      <c r="C27">
-        <v>2.4</v>
-      </c>
-      <c r="D27">
-        <v>1.9</v>
-      </c>
-      <c r="E27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F27">
+      <c r="C61" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E61" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F61" s="4">
         <v>9.5</v>
       </c>
-      <c r="G27" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>876</v>
-      </c>
-      <c r="B28">
-        <v>2023</v>
-      </c>
-      <c r="C28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F28">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G28" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>876</v>
-      </c>
-      <c r="B29">
-        <v>2024</v>
-      </c>
-      <c r="C29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D29">
-        <v>2.1</v>
-      </c>
-      <c r="E29">
-        <v>1.2</v>
-      </c>
-      <c r="F29">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G29" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>875</v>
-      </c>
-      <c r="B30">
-        <v>2021</v>
-      </c>
-      <c r="C30">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D30">
-        <v>2.5</v>
-      </c>
-      <c r="E30">
-        <v>1.2</v>
-      </c>
-      <c r="F30">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G30" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>875</v>
-      </c>
-      <c r="B31">
-        <v>2022</v>
-      </c>
-      <c r="C31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D31">
-        <v>2.7</v>
-      </c>
-      <c r="E31">
-        <v>1.3</v>
-      </c>
-      <c r="F31">
-        <v>10.5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>875</v>
-      </c>
-      <c r="B32">
-        <v>2023</v>
-      </c>
-      <c r="C32">
-        <v>2.1</v>
-      </c>
-      <c r="D32">
-        <v>2.9</v>
-      </c>
-      <c r="E32">
-        <v>1.3</v>
-      </c>
-      <c r="F32">
-        <v>10.8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>875</v>
-      </c>
-      <c r="B33">
-        <v>2024</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>1.4</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>851</v>
-      </c>
-      <c r="B34">
-        <v>2021</v>
-      </c>
-      <c r="C34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D34">
-        <v>3.2</v>
-      </c>
-      <c r="E34">
-        <v>1.3</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>851</v>
-      </c>
-      <c r="B35">
-        <v>2022</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>3.3</v>
-      </c>
-      <c r="E35">
-        <v>1.3</v>
-      </c>
-      <c r="F35">
-        <v>11.3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>851</v>
-      </c>
-      <c r="B36">
-        <v>2023</v>
-      </c>
-      <c r="C36">
-        <v>0.9</v>
-      </c>
-      <c r="D36">
-        <v>3.5</v>
-      </c>
-      <c r="E36">
-        <v>1.4</v>
-      </c>
-      <c r="F36">
-        <v>11.5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>851</v>
-      </c>
-      <c r="B37">
-        <v>2024</v>
-      </c>
-      <c r="C37">
-        <v>0.8</v>
-      </c>
-      <c r="D37">
-        <v>3.6</v>
-      </c>
-      <c r="E37">
-        <v>1.4</v>
-      </c>
-      <c r="F37">
-        <v>11.7</v>
-      </c>
-      <c r="G37" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>874</v>
-      </c>
-      <c r="B38">
-        <v>2021</v>
-      </c>
-      <c r="C38">
-        <v>1.9</v>
-      </c>
-      <c r="D38">
-        <v>2.1</v>
-      </c>
-      <c r="E38">
-        <v>1.2</v>
-      </c>
-      <c r="F38">
-        <v>9.5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>874</v>
-      </c>
-      <c r="B39">
-        <v>2022</v>
-      </c>
-      <c r="C39">
-        <v>1.8</v>
-      </c>
-      <c r="D39">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E39">
-        <v>1.2</v>
-      </c>
-      <c r="F39">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G39" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>874</v>
-      </c>
-      <c r="B40">
-        <v>2023</v>
-      </c>
-      <c r="C40">
-        <v>1.7</v>
-      </c>
-      <c r="D40">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E40">
-        <v>1.3</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>874</v>
-      </c>
-      <c r="B41">
-        <v>2024</v>
-      </c>
-      <c r="C41">
-        <v>1.6</v>
-      </c>
-      <c r="D41">
-        <v>2.4</v>
-      </c>
-      <c r="E41">
-        <v>1.3</v>
-      </c>
-      <c r="F41">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G41" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>872</v>
-      </c>
-      <c r="B42">
-        <v>2021</v>
-      </c>
-      <c r="C42">
-        <v>3.2</v>
-      </c>
-      <c r="D42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E42">
-        <v>0.9</v>
-      </c>
-      <c r="F42">
-        <v>7.5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>872</v>
-      </c>
-      <c r="B43">
-        <v>2022</v>
-      </c>
-      <c r="C43">
-        <v>3.1</v>
-      </c>
-      <c r="D43">
-        <v>1.2</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>7.8</v>
-      </c>
-      <c r="G43" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>872</v>
-      </c>
-      <c r="B44">
-        <v>2023</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>1.3</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
-      </c>
-      <c r="G44" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>872</v>
-      </c>
-      <c r="B45">
-        <v>2024</v>
-      </c>
-      <c r="C45">
-        <v>2.9</v>
-      </c>
-      <c r="D45">
-        <v>1.4</v>
-      </c>
-      <c r="E45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F45">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G45" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>871</v>
-      </c>
-      <c r="B46">
-        <v>2021</v>
-      </c>
-      <c r="C46">
-        <v>1.8</v>
-      </c>
-      <c r="D46">
-        <v>2.9</v>
-      </c>
-      <c r="E46">
-        <v>1.3</v>
-      </c>
-      <c r="F46">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>871</v>
-      </c>
-      <c r="B47">
-        <v>2022</v>
-      </c>
-      <c r="C47">
-        <v>1.7</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>1.3</v>
-      </c>
-      <c r="F47">
-        <v>11.3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>871</v>
-      </c>
-      <c r="B48">
-        <v>2023</v>
-      </c>
-      <c r="C48">
-        <v>1.6</v>
-      </c>
-      <c r="D48">
-        <v>3.1</v>
-      </c>
-      <c r="E48">
-        <v>1.4</v>
-      </c>
-      <c r="F48">
-        <v>11.5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>871</v>
-      </c>
-      <c r="B49">
-        <v>2024</v>
-      </c>
-      <c r="C49">
-        <v>1.5</v>
-      </c>
-      <c r="D49">
-        <v>3.2</v>
-      </c>
-      <c r="E49">
-        <v>1.4</v>
-      </c>
-      <c r="F49">
-        <v>11.6</v>
-      </c>
-      <c r="G49" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>870</v>
-      </c>
-      <c r="B50">
-        <v>2021</v>
-      </c>
-      <c r="C50">
-        <v>1.5</v>
-      </c>
-      <c r="D50">
-        <v>2.8</v>
-      </c>
-      <c r="E50">
-        <v>1.3</v>
-      </c>
-      <c r="F50">
-        <v>10.5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>870</v>
-      </c>
-      <c r="B51">
-        <v>2022</v>
-      </c>
-      <c r="C51">
-        <v>1.4</v>
-      </c>
-      <c r="D51">
-        <v>2.9</v>
-      </c>
-      <c r="E51">
-        <v>1.3</v>
-      </c>
-      <c r="F51">
-        <v>10.7</v>
-      </c>
-      <c r="G51" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>870</v>
-      </c>
-      <c r="B52">
-        <v>2023</v>
-      </c>
-      <c r="C52">
-        <v>1.3</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>1.4</v>
-      </c>
-      <c r="F52">
-        <v>10.8</v>
-      </c>
-      <c r="G52" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>870</v>
-      </c>
-      <c r="B53">
-        <v>2024</v>
-      </c>
-      <c r="C53">
-        <v>1.2</v>
-      </c>
-      <c r="D53">
-        <v>3.1</v>
-      </c>
-      <c r="E53">
-        <v>1.4</v>
-      </c>
-      <c r="F53">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>869</v>
-      </c>
-      <c r="B54">
-        <v>2021</v>
-      </c>
-      <c r="C54">
-        <v>1.6</v>
-      </c>
-      <c r="D54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E54">
-        <v>1.2</v>
-      </c>
-      <c r="F54">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G54" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>869</v>
-      </c>
-      <c r="B55">
-        <v>2022</v>
-      </c>
-      <c r="C55">
-        <v>1.5</v>
-      </c>
-      <c r="D55">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E55">
-        <v>1.2</v>
-      </c>
-      <c r="F55">
-        <v>9.9</v>
-      </c>
-      <c r="G55" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>869</v>
-      </c>
-      <c r="B56">
-        <v>2023</v>
-      </c>
-      <c r="C56">
-        <v>1.4</v>
-      </c>
-      <c r="D56">
-        <v>2.4</v>
-      </c>
-      <c r="E56">
-        <v>1.3</v>
-      </c>
-      <c r="F56">
-        <v>10</v>
-      </c>
-      <c r="G56" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>869</v>
-      </c>
-      <c r="B57">
-        <v>2024</v>
-      </c>
-      <c r="C57">
-        <v>1.3</v>
-      </c>
-      <c r="D57">
-        <v>2.5</v>
-      </c>
-      <c r="E57">
-        <v>1.3</v>
-      </c>
-      <c r="F57">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G57" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>867</v>
-      </c>
-      <c r="B58">
-        <v>2021</v>
-      </c>
-      <c r="C58">
-        <v>1.9</v>
-      </c>
-      <c r="D58">
-        <v>1.8</v>
-      </c>
-      <c r="E58">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F58">
-        <v>9</v>
-      </c>
-      <c r="G58" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>867</v>
-      </c>
-      <c r="B59">
-        <v>2022</v>
-      </c>
-      <c r="C59">
-        <v>1.8</v>
-      </c>
-      <c r="D59">
-        <v>1.9</v>
-      </c>
-      <c r="E59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F59">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G59" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>867</v>
-      </c>
-      <c r="B60">
-        <v>2023</v>
-      </c>
-      <c r="C60">
-        <v>1.7</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>1.2</v>
-      </c>
-      <c r="F60">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G60" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>867</v>
-      </c>
-      <c r="B61">
-        <v>2024</v>
-      </c>
-      <c r="C61">
-        <v>1.6</v>
-      </c>
-      <c r="D61">
-        <v>2.1</v>
-      </c>
-      <c r="E61">
-        <v>1.2</v>
-      </c>
-      <c r="F61">
-        <v>9.5</v>
-      </c>
-      <c r="G61" t="s">
-        <v>866</v>
+      <c r="G61" s="4" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -16288,8 +17466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA08B6-28B9-4D5C-865A-94A570C13CCF}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16303,74 +17481,74 @@
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1" t="s">
+        <v>886</v>
+      </c>
+      <c r="G1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H1" t="s">
         <v>885</v>
       </c>
-      <c r="B1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E1" t="s">
-        <v>864</v>
-      </c>
-      <c r="F1" t="s">
-        <v>887</v>
-      </c>
-      <c r="G1" t="s">
-        <v>863</v>
-      </c>
-      <c r="H1" t="s">
-        <v>886</v>
-      </c>
       <c r="I1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -16384,31 +17562,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -16422,31 +17600,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -16460,31 +17638,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -16498,31 +17676,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -16536,31 +17714,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -16574,31 +17752,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C8" t="s">
         <v>849</v>
       </c>
-      <c r="C8" t="s">
-        <v>850</v>
-      </c>
       <c r="D8" t="s">
+        <v>848</v>
+      </c>
+      <c r="E8" t="s">
         <v>849</v>
       </c>
-      <c r="E8" t="s">
-        <v>850</v>
-      </c>
       <c r="F8" t="s">
+        <v>848</v>
+      </c>
+      <c r="G8" t="s">
         <v>849</v>
       </c>
-      <c r="G8" t="s">
-        <v>850</v>
-      </c>
       <c r="H8" t="s">
+        <v>848</v>
+      </c>
+      <c r="I8" t="s">
         <v>849</v>
-      </c>
-      <c r="I8" t="s">
-        <v>850</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -16612,31 +17790,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -16650,31 +17828,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -16688,31 +17866,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C11" t="s">
+        <v>844</v>
+      </c>
+      <c r="D11" t="s">
         <v>845</v>
       </c>
-      <c r="D11" t="s">
-        <v>846</v>
-      </c>
       <c r="E11" t="s">
+        <v>844</v>
+      </c>
+      <c r="F11" t="s">
         <v>845</v>
       </c>
-      <c r="F11" t="s">
-        <v>846</v>
-      </c>
       <c r="G11" t="s">
+        <v>844</v>
+      </c>
+      <c r="H11" t="s">
         <v>845</v>
       </c>
-      <c r="H11" t="s">
-        <v>846</v>
-      </c>
       <c r="I11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -16726,31 +17904,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D12" t="s">
+        <v>848</v>
+      </c>
+      <c r="E12" t="s">
         <v>849</v>
       </c>
-      <c r="E12" t="s">
-        <v>850</v>
-      </c>
       <c r="F12" t="s">
+        <v>848</v>
+      </c>
+      <c r="G12" t="s">
         <v>849</v>
       </c>
-      <c r="G12" t="s">
-        <v>850</v>
-      </c>
       <c r="H12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -16764,31 +17942,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -16802,31 +17980,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -16840,31 +18018,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -16878,31 +18056,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -16916,6 +18094,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -16923,59 +18104,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4AB793-F12A-4641-95B6-0B1EA129231A}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -16993,7 +18177,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17010,7 +18194,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -17028,7 +18212,7 @@
         <v>12.5</v>
       </c>
       <c r="G3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -17045,7 +18229,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -17063,7 +18247,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17080,7 +18264,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B5">
         <v>2024</v>
@@ -17098,7 +18282,7 @@
         <v>13.5</v>
       </c>
       <c r="G5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -17115,7 +18299,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -17133,7 +18317,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17150,7 +18334,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -17168,7 +18352,7 @@
         <v>11.3</v>
       </c>
       <c r="G7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17185,7 +18369,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -17203,7 +18387,7 @@
         <v>11.5</v>
       </c>
       <c r="G8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17220,7 +18404,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B9">
         <v>2024</v>
@@ -17238,7 +18422,7 @@
         <v>11.6</v>
       </c>
       <c r="G9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -17255,7 +18439,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -17273,7 +18457,7 @@
         <v>11.5</v>
       </c>
       <c r="G10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -17290,7 +18474,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -17308,7 +18492,7 @@
         <v>11.8</v>
       </c>
       <c r="G11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -17325,7 +18509,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -17343,7 +18527,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -17360,7 +18544,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B13">
         <v>2024</v>
@@ -17378,7 +18562,7 @@
         <v>12.3</v>
       </c>
       <c r="G13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -17395,7 +18579,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -17413,7 +18597,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="G14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -17430,7 +18614,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -17448,7 +18632,7 @@
         <v>9.9</v>
       </c>
       <c r="G15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -17465,7 +18649,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -17483,7 +18667,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -17500,7 +18684,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B17">
         <v>2024</v>
@@ -17518,7 +18702,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -17535,7 +18719,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -17553,7 +18737,7 @@
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -17570,7 +18754,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B19">
         <v>2022</v>
@@ -17588,7 +18772,7 @@
         <v>18.3</v>
       </c>
       <c r="G19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -17605,7 +18789,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -17623,7 +18807,7 @@
         <v>18.5</v>
       </c>
       <c r="G20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -17640,7 +18824,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B21">
         <v>2024</v>
@@ -17658,7 +18842,7 @@
         <v>18.7</v>
       </c>
       <c r="G21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -17675,7 +18859,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -17693,7 +18877,7 @@
         <v>9.5</v>
       </c>
       <c r="G22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -17710,7 +18894,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -17728,7 +18912,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -17745,7 +18929,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -17763,7 +18947,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -17780,7 +18964,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B25">
         <v>2024</v>
@@ -17798,7 +18982,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -17815,7 +18999,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -17833,7 +19017,7 @@
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -17850,7 +19034,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -17868,7 +19052,7 @@
         <v>9.5</v>
       </c>
       <c r="G27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -17885,7 +19069,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -17903,7 +19087,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -17920,7 +19104,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B29">
         <v>2024</v>
@@ -17938,7 +19122,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="G29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -17955,7 +19139,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B30">
         <v>2021</v>
@@ -17973,7 +19157,7 @@
         <v>11.5</v>
       </c>
       <c r="G30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -17990,7 +19174,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -18008,7 +19192,7 @@
         <v>11.7</v>
       </c>
       <c r="G31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -18025,7 +19209,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -18043,7 +19227,7 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -18060,7 +19244,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B33">
         <v>2024</v>
@@ -18078,7 +19262,7 @@
         <v>12.2</v>
       </c>
       <c r="G33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -18095,7 +19279,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -18113,7 +19297,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -18130,7 +19314,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -18148,7 +19332,7 @@
         <v>10.5</v>
       </c>
       <c r="G35" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -18165,7 +19349,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -18183,7 +19367,7 @@
         <v>10.8</v>
       </c>
       <c r="G36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -18200,7 +19384,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B37">
         <v>2024</v>
@@ -18218,7 +19402,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -18235,7 +19419,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -18253,7 +19437,7 @@
         <v>10.5</v>
       </c>
       <c r="G38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -18270,7 +19454,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B39">
         <v>2022</v>
@@ -18288,7 +19472,7 @@
         <v>10.7</v>
       </c>
       <c r="G39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -18305,7 +19489,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -18323,7 +19507,7 @@
         <v>10.8</v>
       </c>
       <c r="G40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -18340,7 +19524,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B41">
         <v>2024</v>
@@ -18358,7 +19542,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -18375,7 +19559,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B42">
         <v>2021</v>
@@ -18393,7 +19577,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -18410,7 +19594,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B43">
         <v>2022</v>
@@ -18428,7 +19612,7 @@
         <v>11.3</v>
       </c>
       <c r="G43" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -18445,7 +19629,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B44">
         <v>2023</v>
@@ -18463,7 +19647,7 @@
         <v>11.5</v>
       </c>
       <c r="G44" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -18480,7 +19664,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B45">
         <v>2024</v>
@@ -18498,7 +19682,7 @@
         <v>11.7</v>
       </c>
       <c r="G45" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -18515,7 +19699,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B46">
         <v>2021</v>
@@ -18533,7 +19717,7 @@
         <v>7.5</v>
       </c>
       <c r="G46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -18550,7 +19734,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B47">
         <v>2022</v>
@@ -18568,7 +19752,7 @@
         <v>7.8</v>
       </c>
       <c r="G47" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -18585,7 +19769,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B48">
         <v>2023</v>
@@ -18603,7 +19787,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -18620,7 +19804,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -18638,7 +19822,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -18655,7 +19839,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B50">
         <v>2021</v>
@@ -18673,7 +19857,7 @@
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -18690,7 +19874,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B51">
         <v>2022</v>
@@ -18708,7 +19892,7 @@
         <v>12.5</v>
       </c>
       <c r="G51" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -18725,7 +19909,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B52">
         <v>2023</v>
@@ -18743,7 +19927,7 @@
         <v>12.8</v>
       </c>
       <c r="G52" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -18760,7 +19944,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B53">
         <v>2024</v>
@@ -18778,7 +19962,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -18795,25 +19979,25 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B54">
         <v>2021</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="21">
         <v>5.2040038131553903</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="21">
         <v>2.9454743729552901</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="21">
         <v>0.94091833458203999</v>
       </c>
       <c r="F54" s="14">
         <v>0.169066099148723</v>
       </c>
       <c r="G54" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -18830,7 +20014,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -18838,17 +20022,17 @@
       <c r="C55">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="21">
         <v>4.0248198558847097</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="21">
         <v>0.76997054236700702</v>
       </c>
       <c r="F55" s="14">
         <v>0.35622165532879801</v>
       </c>
       <c r="G55" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -18865,25 +20049,25 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B56">
         <v>2023</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="21">
         <v>4.5872162485065697</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="21">
         <v>2.4452945677123199</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="21">
         <v>0.52419050494376895</v>
       </c>
       <c r="F56" s="14">
         <v>0.31391808270307398</v>
       </c>
       <c r="G56" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -18900,25 +20084,25 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B57">
         <v>2024</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="21">
         <v>4.1802800466744499</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="21">
         <v>1.9922619047618999</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="21">
         <v>0.57503843197540305</v>
       </c>
       <c r="F57" s="14">
         <v>0.280741486327797</v>
       </c>
       <c r="G57" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -18935,7 +20119,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B58">
         <v>2021</v>
@@ -18953,7 +20137,7 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -18970,7 +20154,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B59">
         <v>2022</v>
@@ -18988,7 +20172,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G59" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -19005,7 +20189,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B60">
         <v>2023</v>
@@ -19023,7 +20207,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G60" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -19040,7 +20224,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B61">
         <v>2024</v>
@@ -19058,7 +20242,7 @@
         <v>9.5</v>
       </c>
       <c r="G61" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -19074,7 +20258,30 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
